--- a/Luciphia/ad/download_data/商品推广广告商品报告.xlsx
+++ b/Luciphia/ad/download_data/商品推广广告商品报告.xlsx
@@ -84,14 +84,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.74609375" customWidth="true"/>
-    <col min="2" max="2" width="12.74609375" customWidth="true"/>
+    <col min="1" max="1" width="12.140625" customWidth="true"/>
+    <col min="2" max="2" width="12.140625" customWidth="true"/>
     <col min="3" max="3" width="4.51171875" customWidth="true"/>
-    <col min="4" max="4" width="15.12109375" customWidth="true"/>
-    <col min="5" max="5" width="15.12109375" customWidth="true"/>
+    <col min="4" max="4" width="11.5859375" customWidth="true"/>
+    <col min="5" max="5" width="10.953125" customWidth="true"/>
     <col min="6" max="6" width="22.765625" customWidth="true"/>
     <col min="7" max="7" width="13.4375" customWidth="true"/>
-    <col min="8" max="8" width="6.6875" customWidth="true"/>
+    <col min="8" max="8" width="6.65234375" customWidth="true"/>
     <col min="9" max="9" width="4.9375" customWidth="true"/>
     <col min="10" max="10" width="9.71875" customWidth="true"/>
     <col min="11" max="11" width="13.8046875" customWidth="true"/>
@@ -101,7 +101,7 @@
     <col min="15" max="15" width="13.41796875" customWidth="true"/>
     <col min="16" max="16" width="11.23046875" customWidth="true"/>
     <col min="17" max="17" width="11.23046875" customWidth="true"/>
-    <col min="18" max="18" width="9.65234375" customWidth="true"/>
+    <col min="18" max="18" width="10.6875" customWidth="true"/>
     <col min="19" max="19" width="17.43359375" customWidth="true"/>
     <col min="20" max="20" width="17.43359375" customWidth="true"/>
     <col min="21" max="21" width="17.65234375" customWidth="true"/>
@@ -222,10 +222,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>43279.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
@@ -234,26 +234,26 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>C-01</t>
+          <t>MJ</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>C01</t>
+          <t>MJ</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>SCF-C01-003</t>
+          <t>MJ-IUYL230-BL-S</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>B075WQNT6B</t>
+          <t>B079GN5DSL</t>
         </is>
       </c>
       <c r="H2" s="4" t="n">
-        <v>364.0</v>
+        <v>20.0</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>0.0</v>
@@ -292,10 +292,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>43276.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
@@ -304,26 +304,26 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>DZ210</t>
+          <t>MJ</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>DZ210</t>
+          <t>MJ</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>DZ-IUYL220-BK</t>
+          <t>MJ-IUYL230-CF-S</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>B079JNPCJ1</t>
+          <t>B079GQWL9S</t>
         </is>
       </c>
       <c r="H3" s="4" t="n">
-        <v>81.0</v>
+        <v>114.0</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>0.0</v>
@@ -362,10 +362,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
@@ -384,16 +384,16 @@
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>MJ-IUYL230-BL-S</t>
+          <t>MJ-IUYL230-PK-S</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>B079GN5DSL</t>
+          <t>B079GS1ZJR</t>
         </is>
       </c>
       <c r="H4" s="4" t="n">
-        <v>23.0</v>
+        <v>132.0</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>0.0</v>
@@ -432,10 +432,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
@@ -444,26 +444,26 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>MJ</t>
+          <t>C-01</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>MJ</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>MJ-IUYL230-CF-S</t>
+          <t>SCF-B01-004</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>B079GQWL9S</t>
+          <t>B075XH1TBD</t>
         </is>
       </c>
       <c r="H5" s="4" t="n">
-        <v>38.0</v>
+        <v>257.0</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>0.0</v>
@@ -502,10 +502,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
@@ -514,26 +514,26 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>MJ</t>
+          <t>1722</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>MJ</t>
+          <t>1722</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>MJ-IUYL230-PK-S</t>
+          <t>ST172-BL-L</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>B079GS1ZJR</t>
+          <t>B074SZ6CL6</t>
         </is>
       </c>
       <c r="H6" s="4" t="n">
-        <v>443.0</v>
+        <v>246.0</v>
       </c>
       <c r="I6" s="4" t="n">
         <v>0.0</v>
@@ -572,10 +572,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
@@ -584,76 +584,74 @@
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>C-01</t>
+          <t>1722</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>1722</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>SCF-B01-004</t>
+          <t>ST172-WR-L</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>B075XH1TBD</t>
+          <t>B074SM3B1W</t>
         </is>
       </c>
       <c r="H7" s="4" t="n">
-        <v>835.0</v>
+        <v>778.0</v>
       </c>
       <c r="I7" s="4" t="n">
         <v>2.0</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.0023952095808383233</v>
+        <v>0.002570694087403599</v>
       </c>
       <c r="K7" s="7" t="n">
-        <v>0.135</v>
+        <v>0.30500000000000005</v>
       </c>
       <c r="L7" s="7" t="n">
-        <v>0.27</v>
+        <v>0.6100000000000001</v>
       </c>
       <c r="M7" s="7" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <v>0.013500000000000002</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N7"/>
       <c r="O7" s="5" t="n">
-        <v>74.07407407407408</v>
+        <v>0.0</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R7" s="6" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="S7" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U7" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V7" s="7" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>43279.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
@@ -662,55 +660,49 @@
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>1722</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>1722</t>
         </is>
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>ST172-WR-XXL</t>
+          <t>ST172-WT2-M</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>B074SQ5NX1</t>
+          <t>B074SKGP6T</t>
         </is>
       </c>
       <c r="H8" s="4" t="n">
-        <v>20.0</v>
+        <v>55.0</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="K8" s="7" t="n">
-        <v>0.28</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K8"/>
       <c r="L8" s="7" t="n">
-        <v>0.28</v>
+        <v>0.0</v>
       </c>
       <c r="M8" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N8"/>
-      <c r="O8" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O8"/>
       <c r="P8" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q8" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R8" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R8"/>
       <c r="S8" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -726,10 +718,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>43280.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
@@ -738,55 +730,49 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>AQD</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>AQD广告组 1</t>
         </is>
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>ST172-WT2-L</t>
+          <t>AQD-IUYL330-BK</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>B074SWFPBG</t>
+          <t>B07BLQFM2G</t>
         </is>
       </c>
       <c r="H9" s="4" t="n">
-        <v>1469.0</v>
+        <v>118.0</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.013614703880190603</v>
-      </c>
-      <c r="K9" s="7" t="n">
-        <v>0.7035</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K9"/>
       <c r="L9" s="7" t="n">
-        <v>14.07</v>
+        <v>0.0</v>
       </c>
       <c r="M9" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N9"/>
-      <c r="O9" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O9"/>
       <c r="P9" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q9" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R9" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R9"/>
       <c r="S9" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -802,10 +788,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>43282.0</v>
+        <v>43288.0</v>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
@@ -814,49 +800,55 @@
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>1722</t>
+          <t>AQD</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>1722</t>
+          <t>AQD广告组 1</t>
         </is>
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>ST172-BL-L</t>
+          <t>AQD-IUYL330-PP</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>B074SZ6CL6</t>
+          <t>B07BM3PGBP</t>
         </is>
       </c>
       <c r="H10" s="4" t="n">
-        <v>227.0</v>
+        <v>145.0</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K10"/>
+        <v>0.013793103448275864</v>
+      </c>
+      <c r="K10" s="7" t="n">
+        <v>0.24</v>
+      </c>
       <c r="L10" s="7" t="n">
-        <v>0.0</v>
+        <v>0.48</v>
       </c>
       <c r="M10" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N10"/>
-      <c r="O10"/>
+      <c r="O10" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P10" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q10" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R10"/>
+      <c r="R10" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S10" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -872,10 +864,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
@@ -884,55 +876,49 @@
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>1722</t>
+          <t>AQD</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>1722</t>
+          <t>AQD广告组 1</t>
         </is>
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>ST172-WR-L</t>
+          <t>AQD-IUYL330-RD</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>B074SM3B1W</t>
+          <t>B07C8GM14Z</t>
         </is>
       </c>
       <c r="H11" s="4" t="n">
-        <v>971.0</v>
+        <v>90.0</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.0010298661174047373</v>
-      </c>
-      <c r="K11" s="7" t="n">
-        <v>0.35</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K11"/>
       <c r="L11" s="7" t="n">
-        <v>0.35</v>
+        <v>0.0</v>
       </c>
       <c r="M11" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N11"/>
-      <c r="O11" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O11"/>
       <c r="P11" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q11" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R11" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R11"/>
       <c r="S11" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -948,10 +934,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
@@ -960,26 +946,26 @@
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>1722</t>
+          <t>AQD</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>1722</t>
+          <t>AQD广告组 1</t>
         </is>
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>ST172-WT2-M</t>
+          <t>AQD-IUYL330-YL</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>B074SKGP6T</t>
+          <t>B07BLQJYGS</t>
         </is>
       </c>
       <c r="H12" s="4" t="n">
-        <v>197.0</v>
+        <v>91.0</v>
       </c>
       <c r="I12" s="4" t="n">
         <v>0.0</v>
@@ -1018,10 +1004,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
@@ -1030,26 +1016,26 @@
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>AQD</t>
+          <t>LGQ-TEST</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>AQD广告组 1</t>
+          <t>LGQ-PINK</t>
         </is>
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>AQD-IUYL330-BK</t>
+          <t>LGQ-IUYL100-PK</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>B07BLQFM2G</t>
+          <t>B0798PX336</t>
         </is>
       </c>
       <c r="H13" s="4" t="n">
-        <v>128.0</v>
+        <v>1511.0</v>
       </c>
       <c r="I13" s="4" t="n">
         <v>0.0</v>
@@ -1088,10 +1074,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
@@ -1100,55 +1086,49 @@
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>AQD</t>
+          <t>LGQ-TEST</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>AQD广告组 1</t>
+          <t>LGQ-BLUE</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>AQD-IUYL330-PP</t>
+          <t>LGQ-IUYL100-BL</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>B07BM3PGBP</t>
+          <t>B0798PCSXB</t>
         </is>
       </c>
       <c r="H14" s="4" t="n">
-        <v>270.0</v>
+        <v>45.0</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.003703703703703704</v>
-      </c>
-      <c r="K14" s="7" t="n">
-        <v>0.29</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K14"/>
       <c r="L14" s="7" t="n">
-        <v>0.29</v>
+        <v>0.0</v>
       </c>
       <c r="M14" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N14"/>
-      <c r="O14" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O14"/>
       <c r="P14" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R14" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R14"/>
       <c r="S14" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1164,10 +1144,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
@@ -1176,49 +1156,55 @@
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>AQD</t>
+          <t>LGQ-TEST</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>AQD广告组 1</t>
+          <t>LGQ-RED</t>
         </is>
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>AQD-IUYL330-RD</t>
+          <t>LGQ-IUYL100-RD</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t>B07C8GM14Z</t>
+          <t>B0798PY6XT</t>
         </is>
       </c>
       <c r="H15" s="4" t="n">
-        <v>85.0</v>
+        <v>14989.0</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K15"/>
+        <v>6.004403229034626E-4</v>
+      </c>
+      <c r="K15" s="7" t="n">
+        <v>0.6011111111111112</v>
+      </c>
       <c r="L15" s="7" t="n">
-        <v>0.0</v>
+        <v>5.41</v>
       </c>
       <c r="M15" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N15"/>
-      <c r="O15"/>
+      <c r="O15" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P15" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R15"/>
+      <c r="R15" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S15" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1234,10 +1220,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
@@ -1246,49 +1232,55 @@
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>AQD</t>
+          <t>C-01</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>AQD广告组 1</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>AQD-IUYL330-YL</t>
+          <t>SCF-B01-020</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>B07BLQJYGS</t>
+          <t>B075XFQC8B</t>
         </is>
       </c>
       <c r="H16" s="4" t="n">
-        <v>117.0</v>
+        <v>148.0</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K16"/>
+        <v>0.006756756756756756</v>
+      </c>
+      <c r="K16" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="L16" s="7" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="M16" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N16"/>
-      <c r="O16"/>
+      <c r="O16" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P16" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R16"/>
+      <c r="R16" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S16" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1304,10 +1296,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>43280.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
@@ -1316,38 +1308,38 @@
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>LGQ-TEST</t>
+          <t>C-01</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>LGQ-PINK</t>
+          <t>C01</t>
         </is>
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>LGQ-IUYL100-PK</t>
+          <t>SCF-C01-012</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>B0798PX336</t>
+          <t>B075WQJ859</t>
         </is>
       </c>
       <c r="H17" s="4" t="n">
-        <v>558.0</v>
+        <v>1085.0</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.0017921146953405018</v>
+        <v>0.002764976958525346</v>
       </c>
       <c r="K17" s="7" t="n">
-        <v>0.36</v>
+        <v>0.2733333333333334</v>
       </c>
       <c r="L17" s="7" t="n">
-        <v>0.36</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="M17" s="7" t="n">
         <v>0.0</v>
@@ -1380,10 +1372,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>43279.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
@@ -1397,50 +1389,44 @@
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>C01</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>SCF-C01-007</t>
+          <t>SCF-B01-011</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>B075WSXH1N</t>
+          <t>B075XDTMSM</t>
         </is>
       </c>
       <c r="H18" s="4" t="n">
-        <v>818.0</v>
+        <v>119.0</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.0012224938875305623</v>
-      </c>
-      <c r="K18" s="7" t="n">
-        <v>0.21</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K18"/>
       <c r="L18" s="7" t="n">
-        <v>0.21</v>
+        <v>0.0</v>
       </c>
       <c r="M18" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N18"/>
-      <c r="O18" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O18"/>
       <c r="P18" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q18" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R18" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R18"/>
       <c r="S18" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1456,10 +1442,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
@@ -1468,68 +1454,76 @@
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>LGQ-TEST</t>
+          <t>LGQ-MANU</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>LGQ-BLUE</t>
+          <t>RED</t>
         </is>
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>LGQ-IUYL100-BL</t>
+          <t>LGQ-IUYL100-RD</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
         <is>
-          <t>B0798PCSXB</t>
+          <t>B0798PY6XT</t>
         </is>
       </c>
       <c r="H19" s="4" t="n">
-        <v>188.0</v>
+        <v>9211.0</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K19"/>
+        <v>0.001411355987406362</v>
+      </c>
+      <c r="K19" s="7" t="n">
+        <v>0.8199999999999998</v>
+      </c>
       <c r="L19" s="7" t="n">
-        <v>0.0</v>
+        <v>10.659999999999998</v>
       </c>
       <c r="M19" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N19"/>
-      <c r="O19"/>
+        <v>17.9</v>
+      </c>
+      <c r="N19" s="6" t="n">
+        <v>0.5955307262569832</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>1.679174484052533</v>
+      </c>
       <c r="P19" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R19"/>
+        <v>1.0</v>
+      </c>
+      <c r="R19" s="6" t="n">
+        <v>0.07692307692307693</v>
+      </c>
       <c r="S19" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T19" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U19" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V19" s="7" t="n">
-        <v>0.0</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>43280.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>43282.0</v>
+        <v>43284.0</v>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
@@ -1538,38 +1532,38 @@
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>LGQ-TEST</t>
+          <t>STT173</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>LGQ-RED</t>
+          <t>173</t>
         </is>
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>LGQ-IUYL100-RD</t>
+          <t>ST173-BL-XXL</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t>B0798PY6XT</t>
+          <t>B074ST3T2H</t>
         </is>
       </c>
       <c r="H20" s="4" t="n">
-        <v>459.0</v>
+        <v>394.0</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.010893246187363835</v>
+        <v>0.017766497461928935</v>
       </c>
       <c r="K20" s="7" t="n">
-        <v>0.484</v>
+        <v>0.6542857142857142</v>
       </c>
       <c r="L20" s="7" t="n">
-        <v>2.42</v>
+        <v>4.58</v>
       </c>
       <c r="M20" s="7" t="n">
         <v>0.0</v>
@@ -1602,10 +1596,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
@@ -1614,49 +1608,55 @@
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>C-01</t>
+          <t>XQ-SD</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>red</t>
         </is>
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>SCF-B01-020</t>
+          <t>XQ-IUYL260-RD-S</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
         <is>
-          <t>B075XFQC8B</t>
+          <t>B079GM3BXL</t>
         </is>
       </c>
       <c r="H21" s="4" t="n">
-        <v>671.0</v>
+        <v>4628.0</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K21"/>
+        <v>0.0054019014693171994</v>
+      </c>
+      <c r="K21" s="7" t="n">
+        <v>0.4864</v>
+      </c>
       <c r="L21" s="7" t="n">
-        <v>0.0</v>
+        <v>12.16</v>
       </c>
       <c r="M21" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N21"/>
-      <c r="O21"/>
+      <c r="O21" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P21" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R21"/>
+      <c r="R21" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S21" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1672,10 +1672,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>43282.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
@@ -1684,33 +1684,31 @@
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>C-01</t>
+          <t>新TZ</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>C01</t>
+          <t>小熊</t>
         </is>
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>SCF-C01-012</t>
+          <t>TZ-IUYL240-BEAR-S</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>B075WQJ859</t>
+          <t>B07DF6DDNM</t>
         </is>
       </c>
       <c r="H22" s="4" t="n">
-        <v>1223.0</v>
+        <v>0.0</v>
       </c>
       <c r="I22" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="J22" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="J22"/>
       <c r="K22"/>
       <c r="L22" s="7" t="n">
         <v>0.0</v>
@@ -1742,10 +1740,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
@@ -1754,68 +1752,76 @@
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>C-01</t>
+          <t>TZZ</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>TZZ</t>
         </is>
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>SCF-B01-011</t>
+          <t>TZ-IUYL240LHY-ELPH-S</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
         <is>
-          <t>B075XDTMSM</t>
+          <t>B07BGWTSX6</t>
         </is>
       </c>
       <c r="H23" s="4" t="n">
-        <v>448.0</v>
+        <v>34775.0</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>0.0</v>
+        <v>392.0</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K23"/>
+        <v>0.011272465851905104</v>
+      </c>
+      <c r="K23" s="7" t="n">
+        <v>0.759591836734694</v>
+      </c>
       <c r="L23" s="7" t="n">
-        <v>0.0</v>
+        <v>297.76000000000005</v>
       </c>
       <c r="M23" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N23"/>
-      <c r="O23"/>
+        <v>1163.3300000000004</v>
+      </c>
+      <c r="N23" s="6" t="n">
+        <v>0.2559548881228886</v>
+      </c>
+      <c r="O23" s="5" t="n">
+        <v>3.906938473938743</v>
+      </c>
       <c r="P23" s="4" t="n">
-        <v>0.0</v>
+        <v>66.0</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R23"/>
+        <v>67.0</v>
+      </c>
+      <c r="R23" s="6" t="n">
+        <v>0.1683673469387755</v>
+      </c>
       <c r="S23" s="4" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="T23" s="4" t="n">
-        <v>0.0</v>
+        <v>58.0</v>
       </c>
       <c r="U23" s="7" t="n">
-        <v>0.0</v>
+        <v>125.90999999999998</v>
       </c>
       <c r="V23" s="7" t="n">
-        <v>0.0</v>
+        <v>1037.4200000000003</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>43277.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>43277.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
@@ -1824,66 +1830,76 @@
       </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>BBBD-AUTO</t>
+          <t>TZ-ELPH</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>BULE</t>
+          <t>TZ-AUTO</t>
         </is>
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>BBBD-BUSB1605B-BL</t>
+          <t>TZ-IUYL240LHY-ELPH-S</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
         <is>
-          <t>B07C178LY1</t>
+          <t>B07BGWTSX6</t>
         </is>
       </c>
       <c r="H24" s="4" t="n">
-        <v>0.0</v>
+        <v>58564.0</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J24"/>
-      <c r="K24"/>
+        <v>204.0</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.0034833686223618605</v>
+      </c>
+      <c r="K24" s="7" t="n">
+        <v>0.6632352941176469</v>
+      </c>
       <c r="L24" s="7" t="n">
-        <v>0.0</v>
+        <v>135.29999999999998</v>
       </c>
       <c r="M24" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N24"/>
-      <c r="O24"/>
+        <v>397.76</v>
+      </c>
+      <c r="N24" s="6" t="n">
+        <v>0.34015486725663713</v>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>2.939837398373984</v>
+      </c>
       <c r="P24" s="4" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R24"/>
+        <v>24.0</v>
+      </c>
+      <c r="R24" s="6" t="n">
+        <v>0.1176470588235294</v>
+      </c>
       <c r="S24" s="4" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="T24" s="4" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="U24" s="7" t="n">
-        <v>0.0</v>
+        <v>69.95</v>
       </c>
       <c r="V24" s="7" t="n">
-        <v>0.0</v>
+        <v>327.81</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>43280.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>43282.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
@@ -1892,63 +1908,65 @@
       </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>LGQ-MANU</t>
+          <t>BBBD-AUTO</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>RED</t>
+          <t>PINK</t>
         </is>
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>LGQ-IUYL100-RD</t>
+          <t>BBBD-BUSB1605B-RD</t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr">
         <is>
-          <t>B0798PY6XT</t>
+          <t>B07CBPY63R</t>
         </is>
       </c>
       <c r="H25" s="4" t="n">
-        <v>1472.0</v>
+        <v>1977.0</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.0033967391304347825</v>
+        <v>0.0035407182599898838</v>
       </c>
       <c r="K25" s="7" t="n">
-        <v>0.9039999999999999</v>
+        <v>0.31428571428571433</v>
       </c>
       <c r="L25" s="7" t="n">
-        <v>4.52</v>
+        <v>2.2</v>
       </c>
       <c r="M25" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N25"/>
+        <v>29.99</v>
+      </c>
+      <c r="N25" s="6" t="n">
+        <v>0.0733577859286429</v>
+      </c>
       <c r="O25" s="5" t="n">
-        <v>0.0</v>
+        <v>13.63181818181818</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R25" s="6" t="n">
-        <v>0.0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="S25" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T25" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="U25" s="7" t="n">
-        <v>0.0</v>
+        <v>29.99</v>
       </c>
       <c r="V25" s="7" t="n">
         <v>0.0</v>
@@ -1956,10 +1974,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>43278.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>43278.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
@@ -1968,47 +1986,55 @@
       </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>TZZ</t>
+          <t>GW</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>TZZ</t>
+          <t>GW-AUTO</t>
         </is>
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>TZ-IUYL240-BONE-S</t>
+          <t>GW-LULHY-6.2</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>B079HQW62H</t>
+          <t>B078HD4M37</t>
         </is>
       </c>
       <c r="H26" s="4" t="n">
-        <v>0.0</v>
+        <v>169.0</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J26"/>
-      <c r="K26"/>
+        <v>2.0</v>
+      </c>
+      <c r="J26" s="6" t="n">
+        <v>0.011834319526627219</v>
+      </c>
+      <c r="K26" s="7" t="n">
+        <v>0.345</v>
+      </c>
       <c r="L26" s="7" t="n">
-        <v>0.0</v>
+        <v>0.69</v>
       </c>
       <c r="M26" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N26"/>
-      <c r="O26"/>
+      <c r="O26" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P26" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q26" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R26"/>
+      <c r="R26" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S26" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2024,10 +2050,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
@@ -2036,76 +2062,76 @@
       </c>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>STT173</t>
+          <t>BBBD-AUTO</t>
         </is>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>PINK</t>
         </is>
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>ST173-BL-XXL</t>
+          <t>BBBD-1605A-BL</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
         <is>
-          <t>B074ST3T2H</t>
+          <t>B07D8S8R3B</t>
         </is>
       </c>
       <c r="H27" s="4" t="n">
-        <v>1111.0</v>
+        <v>11865.0</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.020702070207020702</v>
+        <v>0.0036241045090602613</v>
       </c>
       <c r="K27" s="7" t="n">
-        <v>0.6365217391304349</v>
+        <v>0.4430232558139534</v>
       </c>
       <c r="L27" s="7" t="n">
-        <v>14.64</v>
+        <v>19.049999999999997</v>
       </c>
       <c r="M27" s="7" t="n">
-        <v>36.980000000000004</v>
+        <v>35.99</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.3958896700919416</v>
+        <v>0.5293136982495137</v>
       </c>
       <c r="O27" s="5" t="n">
-        <v>2.5259562841530054</v>
+        <v>1.8892388451443574</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="R27" s="6" t="n">
-        <v>0.13043478260869565</v>
+        <v>0.023255813953488372</v>
       </c>
       <c r="S27" s="4" t="n">
         <v>1.0</v>
       </c>
       <c r="T27" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U27" s="7" t="n">
-        <v>10.0</v>
+        <v>35.99</v>
       </c>
       <c r="V27" s="7" t="n">
-        <v>26.98</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>43276.0</v>
+        <v>43284.0</v>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
@@ -2114,49 +2140,55 @@
       </c>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>STT173</t>
+          <t>TZZ</t>
         </is>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>DOG</t>
         </is>
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>ST173-NY-S</t>
+          <t>TZ-IUYL240LHY-DOT-S</t>
         </is>
       </c>
       <c r="G28" s="1" t="inlineStr">
         <is>
-          <t>B074SNF6PC</t>
+          <t>B07CBPWQZT</t>
         </is>
       </c>
       <c r="H28" s="4" t="n">
+        <v>249.0</v>
+      </c>
+      <c r="I28" s="4" t="n">
         <v>3.0</v>
       </c>
-      <c r="I28" s="4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="J28" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K28"/>
+        <v>0.012048192771084338</v>
+      </c>
+      <c r="K28" s="7" t="n">
+        <v>0.6533333333333333</v>
+      </c>
       <c r="L28" s="7" t="n">
-        <v>0.0</v>
+        <v>1.96</v>
       </c>
       <c r="M28" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N28"/>
-      <c r="O28"/>
+      <c r="O28" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P28" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q28" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R28"/>
+      <c r="R28" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S28" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2172,10 +2204,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>43276.0</v>
+        <v>43288.0</v>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
@@ -2184,49 +2216,55 @@
       </c>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>STT173</t>
+          <t>TZZ</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>DOG</t>
         </is>
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>ST173-WT1-S</t>
+          <t>TZ-IUYL240LHY-PAW-M</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
         <is>
-          <t>B074SXT853</t>
+          <t>B079HPLTVC</t>
         </is>
       </c>
       <c r="H29" s="4" t="n">
-        <v>2.0</v>
+        <v>509.0</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K29"/>
+        <v>0.011787819253438114</v>
+      </c>
+      <c r="K29" s="7" t="n">
+        <v>0.8650000000000001</v>
+      </c>
       <c r="L29" s="7" t="n">
-        <v>0.0</v>
+        <v>5.19</v>
       </c>
       <c r="M29" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N29"/>
-      <c r="O29"/>
+      <c r="O29" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P29" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q29" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R29"/>
+      <c r="R29" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S29" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2242,10 +2280,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
@@ -2254,76 +2292,74 @@
       </c>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>XQ-SD</t>
+          <t>TZ-ELPH</t>
         </is>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>TZ-AUTO</t>
         </is>
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>XQ-IUYL260-RD-S</t>
+          <t>TZ-IUYL240LHY-DOT-S</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
         <is>
-          <t>B079GM3BXL</t>
+          <t>B07CBPWQZT</t>
         </is>
       </c>
       <c r="H30" s="4" t="n">
-        <v>2090.0</v>
+        <v>1113.0</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>23.0</v>
+        <v>12.0</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.011004784688995215</v>
+        <v>0.01078167115902965</v>
       </c>
       <c r="K30" s="7" t="n">
-        <v>0.5378260869565217</v>
+        <v>0.6191666666666666</v>
       </c>
       <c r="L30" s="7" t="n">
-        <v>12.37</v>
+        <v>7.43</v>
       </c>
       <c r="M30" s="7" t="n">
-        <v>29.700000000000003</v>
-      </c>
-      <c r="N30" s="6" t="n">
-        <v>0.4164983164983164</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N30"/>
       <c r="O30" s="5" t="n">
-        <v>2.4009700889248187</v>
+        <v>0.0</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="R30" s="6" t="n">
-        <v>0.13043478260869565</v>
+        <v>0.0</v>
       </c>
       <c r="S30" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T30" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="U30" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V30" s="7" t="n">
-        <v>29.700000000000003</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>43276.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
@@ -2332,49 +2368,55 @@
       </c>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>C-01</t>
         </is>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>C01</t>
         </is>
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>SCF-B01-004</t>
+          <t>scarf-0001-Peony</t>
         </is>
       </c>
       <c r="G31" s="1" t="inlineStr">
         <is>
-          <t>B075XH1TBD</t>
+          <t>B073GX87XH</t>
         </is>
       </c>
       <c r="H31" s="4" t="n">
-        <v>1.0</v>
+        <v>79.0</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K31"/>
+        <v>0.025316455696202535</v>
+      </c>
+      <c r="K31" s="7" t="n">
+        <v>0.08499999999999999</v>
+      </c>
       <c r="L31" s="7" t="n">
-        <v>0.0</v>
+        <v>0.16999999999999998</v>
       </c>
       <c r="M31" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N31"/>
-      <c r="O31"/>
+      <c r="O31" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P31" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q31" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R31"/>
+      <c r="R31" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S31" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2390,10 +2432,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>43278.0</v>
+        <v>43284.0</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>43280.0</v>
+        <v>43287.0</v>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
@@ -2402,38 +2444,38 @@
       </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>新TZ</t>
+          <t>BBBD-AUTO</t>
         </is>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>兔子</t>
+          <t>PINK</t>
         </is>
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>TZ-IUYL240-RABBIT-S</t>
+          <t>BBBD-1605A-RD</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr">
         <is>
-          <t>B07DFCKR8T</t>
+          <t>B07C178M2R</t>
         </is>
       </c>
       <c r="H32" s="4" t="n">
-        <v>335.0</v>
+        <v>1236.0</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.020895522388059706</v>
+        <v>0.0032362459546925572</v>
       </c>
       <c r="K32" s="7" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.43500000000000005</v>
       </c>
       <c r="L32" s="7" t="n">
-        <v>6.25</v>
+        <v>1.7400000000000002</v>
       </c>
       <c r="M32" s="7" t="n">
         <v>0.0</v>
@@ -2466,10 +2508,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>43276.0</v>
+        <v>43284.0</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>43276.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
@@ -2478,74 +2520,76 @@
       </c>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>新毯子-SD</t>
+          <t>TZZ</t>
         </is>
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>DOG</t>
         </is>
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>TZ-IUYL240-BEAR-S</t>
+          <t>TZ-IUYL240LHY-PAW-S</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
         <is>
-          <t>B07DF6DDNM</t>
+          <t>B079HQPJP2</t>
         </is>
       </c>
       <c r="H33" s="4" t="n">
-        <v>205.0</v>
+        <v>1279.0</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.029268292682926834</v>
+        <v>0.0109460516028147</v>
       </c>
       <c r="K33" s="7" t="n">
-        <v>1.0233333333333334</v>
+        <v>0.6900000000000001</v>
       </c>
       <c r="L33" s="7" t="n">
-        <v>6.140000000000001</v>
+        <v>9.66</v>
       </c>
       <c r="M33" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N33"/>
+        <v>18.99</v>
+      </c>
+      <c r="N33" s="6" t="n">
+        <v>0.5086887835703002</v>
+      </c>
       <c r="O33" s="5" t="n">
-        <v>0.0</v>
+        <v>1.96583850931677</v>
       </c>
       <c r="P33" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R33" s="6" t="n">
-        <v>0.0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="S33" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T33" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U33" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V33" s="7" t="n">
-        <v>0.0</v>
+        <v>18.99</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>43276.0</v>
+        <v>43287.0</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>43279.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
@@ -2554,76 +2598,68 @@
       </c>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>新TZ</t>
+          <t>BBBD-AUTO</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>小熊</t>
+          <t>PINK</t>
         </is>
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>TZ-IUYL240-BEAR-S</t>
+          <t>BD-LUHM010</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
         <is>
-          <t>B07DF6DDNM</t>
+          <t>B07DJ8MH2Q</t>
         </is>
       </c>
       <c r="H34" s="4" t="n">
-        <v>2329.0</v>
+        <v>211.0</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>34.0</v>
+        <v>0.0</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>0.014598540145985401</v>
-      </c>
-      <c r="K34" s="7" t="n">
-        <v>0.851764705882353</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K34"/>
       <c r="L34" s="7" t="n">
-        <v>28.96</v>
+        <v>0.0</v>
       </c>
       <c r="M34" s="7" t="n">
-        <v>115.91</v>
-      </c>
-      <c r="N34" s="6" t="n">
-        <v>0.24984902079199378</v>
-      </c>
-      <c r="O34" s="5" t="n">
-        <v>4.002417127071823</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N34"/>
+      <c r="O34"/>
       <c r="P34" s="4" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="R34" s="6" t="n">
-        <v>0.20588235294117646</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R34"/>
       <c r="S34" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T34" s="4" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="U34" s="7" t="n">
-        <v>13.99</v>
+        <v>0.0</v>
       </c>
       <c r="V34" s="7" t="n">
-        <v>101.91999999999999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>43276.0</v>
+        <v>43287.0</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
@@ -2632,76 +2668,76 @@
       </c>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>新TZ</t>
+          <t>BBBD-TEST</t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr">
         <is>
-          <t>斑点2</t>
+          <t>XX Carrier</t>
         </is>
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>TZ-IUYL240-DOT2-S</t>
+          <t>BBBD-1605A-BL</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
         <is>
-          <t>B07DF9YBBV</t>
+          <t>B07D8S8R3B</t>
         </is>
       </c>
       <c r="H35" s="4" t="n">
-        <v>4651.0</v>
+        <v>694.0</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>37.0</v>
+        <v>1.0</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>0.007955278434745217</v>
+        <v>0.0014409221902017292</v>
       </c>
       <c r="K35" s="7" t="n">
-        <v>0.8429729729729729</v>
+        <v>0.29</v>
       </c>
       <c r="L35" s="7" t="n">
-        <v>31.189999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="M35" s="7" t="n">
-        <v>175.91</v>
+        <v>35.99</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.17730657722699106</v>
+        <v>0.008057793831619893</v>
       </c>
       <c r="O35" s="5" t="n">
-        <v>5.639948701506894</v>
+        <v>124.10344827586208</v>
       </c>
       <c r="P35" s="4" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="R35" s="6" t="n">
-        <v>0.24324324324324326</v>
+        <v>1.0</v>
       </c>
       <c r="S35" s="4" t="n">
         <v>1.0</v>
       </c>
       <c r="T35" s="4" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="U35" s="7" t="n">
-        <v>13.99</v>
+        <v>35.99</v>
       </c>
       <c r="V35" s="7" t="n">
-        <v>161.92</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>43277.0</v>
+        <v>43287.0</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
@@ -2710,76 +2746,74 @@
       </c>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>TZZ</t>
+          <t>BBBD-TEST</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr">
         <is>
-          <t>TZZ</t>
+          <t>XX Carrier</t>
         </is>
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>TZ-IUYL240LHY-ELPH-S</t>
+          <t>BBBD-BUSB1605B-PK</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
         <is>
-          <t>B07BGWTSX6</t>
+          <t>B07C1KX15Z</t>
         </is>
       </c>
       <c r="H36" s="4" t="n">
-        <v>20588.0</v>
+        <v>472.0</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>222.0</v>
+        <v>1.0</v>
       </c>
       <c r="J36" s="6" t="n">
-        <v>0.010782980376918595</v>
+        <v>0.00211864406779661</v>
       </c>
       <c r="K36" s="7" t="n">
-        <v>0.8052702702702703</v>
+        <v>0.25</v>
       </c>
       <c r="L36" s="7" t="n">
-        <v>178.77</v>
+        <v>0.25</v>
       </c>
       <c r="M36" s="7" t="n">
-        <v>612.6400000000001</v>
-      </c>
-      <c r="N36" s="6" t="n">
-        <v>0.29180268999738834</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N36"/>
       <c r="O36" s="5" t="n">
-        <v>3.4269732057951563</v>
+        <v>0.0</v>
       </c>
       <c r="P36" s="4" t="n">
-        <v>35.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
       <c r="R36" s="6" t="n">
-        <v>0.15765765765765766</v>
+        <v>0.0</v>
       </c>
       <c r="S36" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="T36" s="4" t="n">
-        <v>33.0</v>
+        <v>0.0</v>
       </c>
       <c r="U36" s="7" t="n">
-        <v>40.97</v>
+        <v>0.0</v>
       </c>
       <c r="V36" s="7" t="n">
-        <v>571.6700000000001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>43276.0</v>
+        <v>43287.0</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>43279.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
@@ -2788,12 +2822,12 @@
       </c>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>BBBD-LUHM010</t>
+          <t>BBBD-TEST</t>
         </is>
       </c>
       <c r="E37" s="1" t="inlineStr">
         <is>
-          <t>BBBD-LUHM010</t>
+          <t>XX Carrier</t>
         </is>
       </c>
       <c r="F37" s="1" t="inlineStr">
@@ -2807,30 +2841,36 @@
         </is>
       </c>
       <c r="H37" s="4" t="n">
-        <v>1277.0</v>
+        <v>4647.0</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="J37" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K37"/>
+        <v>0.0032278889606197547</v>
+      </c>
+      <c r="K37" s="7" t="n">
+        <v>1.0186666666666666</v>
+      </c>
       <c r="L37" s="7" t="n">
-        <v>0.0</v>
+        <v>15.28</v>
       </c>
       <c r="M37" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N37"/>
-      <c r="O37"/>
+      <c r="O37" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P37" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q37" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R37"/>
+      <c r="R37" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S37" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2846,10 +2886,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>43276.0</v>
+        <v>43287.0</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>43276.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
@@ -2858,49 +2898,55 @@
       </c>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>SCF</t>
+          <t>BBBD-AUTO</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr">
         <is>
-          <t>SCF-</t>
+          <t>PINK</t>
         </is>
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>SCF-B01-005</t>
+          <t>BBBD-BUSB1605B-PK</t>
         </is>
       </c>
       <c r="G38" s="1" t="inlineStr">
         <is>
-          <t>B075XGCNH2</t>
+          <t>B07C1KX15Z</t>
         </is>
       </c>
       <c r="H38" s="4" t="n">
-        <v>61.0</v>
+        <v>2606.0</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K38"/>
+        <v>0.0034535686876438986</v>
+      </c>
+      <c r="K38" s="7" t="n">
+        <v>0.5477777777777777</v>
+      </c>
       <c r="L38" s="7" t="n">
-        <v>0.0</v>
+        <v>4.93</v>
       </c>
       <c r="M38" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N38"/>
-      <c r="O38"/>
+      <c r="O38" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P38" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q38" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R38"/>
+      <c r="R38" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S38" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2911,984 +2957,6 @@
         <v>0.0</v>
       </c>
       <c r="V38" s="7" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>43276.0</v>
-      </c>
-      <c r="B39" s="2" t="n">
-        <v>43276.0</v>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
-        <is>
-          <t>SCF</t>
-        </is>
-      </c>
-      <c r="E39" s="1" t="inlineStr">
-        <is>
-          <t>SCF-</t>
-        </is>
-      </c>
-      <c r="F39" s="1" t="inlineStr">
-        <is>
-          <t>SCF-B01-006</t>
-        </is>
-      </c>
-      <c r="G39" s="1" t="inlineStr">
-        <is>
-          <t>B075XG5JVY</t>
-        </is>
-      </c>
-      <c r="H39" s="4" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="I39" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J39" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K39"/>
-      <c r="L39" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M39" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q39" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R39"/>
-      <c r="S39" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T39" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U39" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V39" s="7" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>43276.0</v>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>43278.0</v>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
-        <is>
-          <t>SCF</t>
-        </is>
-      </c>
-      <c r="E40" s="1" t="inlineStr">
-        <is>
-          <t>SCF-</t>
-        </is>
-      </c>
-      <c r="F40" s="1" t="inlineStr">
-        <is>
-          <t>SCF-C01-008</t>
-        </is>
-      </c>
-      <c r="G40" s="1" t="inlineStr">
-        <is>
-          <t>B075WNZJSF</t>
-        </is>
-      </c>
-      <c r="H40" s="4" t="n">
-        <v>22052.0</v>
-      </c>
-      <c r="I40" s="4" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="J40" s="6" t="n">
-        <v>0.0013604208235080716</v>
-      </c>
-      <c r="K40" s="7" t="n">
-        <v>0.5983333333333334</v>
-      </c>
-      <c r="L40" s="7" t="n">
-        <v>17.950000000000003</v>
-      </c>
-      <c r="M40" s="7" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="N40" s="6" t="n">
-        <v>0.8975000000000002</v>
-      </c>
-      <c r="O40" s="5" t="n">
-        <v>1.1142061281337046</v>
-      </c>
-      <c r="P40" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q40" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R40" s="6" t="n">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="S40" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T40" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U40" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V40" s="7" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>43276.0</v>
-      </c>
-      <c r="B41" s="2" t="n">
-        <v>43278.0</v>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
-        <is>
-          <t>SCF</t>
-        </is>
-      </c>
-      <c r="E41" s="1" t="inlineStr">
-        <is>
-          <t>SCF-</t>
-        </is>
-      </c>
-      <c r="F41" s="1" t="inlineStr">
-        <is>
-          <t>SCF-C01-009</t>
-        </is>
-      </c>
-      <c r="G41" s="1" t="inlineStr">
-        <is>
-          <t>B075WT1YRZ</t>
-        </is>
-      </c>
-      <c r="H41" s="4" t="n">
-        <v>9112.0</v>
-      </c>
-      <c r="I41" s="4" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="J41" s="6" t="n">
-        <v>0.0012071992976294996</v>
-      </c>
-      <c r="K41" s="7" t="n">
-        <v>0.47363636363636363</v>
-      </c>
-      <c r="L41" s="7" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="M41" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N41"/>
-      <c r="O41" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P41" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q41" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R41" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S41" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T41" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U41" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V41" s="7" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>43278.0</v>
-      </c>
-      <c r="B42" s="2" t="n">
-        <v>43282.0</v>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
-        <is>
-          <t>TZ-ELPH</t>
-        </is>
-      </c>
-      <c r="E42" s="1" t="inlineStr">
-        <is>
-          <t>TZ-AUTO</t>
-        </is>
-      </c>
-      <c r="F42" s="1" t="inlineStr">
-        <is>
-          <t>TZ-IUYL240LHY-ELPH-S</t>
-        </is>
-      </c>
-      <c r="G42" s="1" t="inlineStr">
-        <is>
-          <t>B07BGWTSX6</t>
-        </is>
-      </c>
-      <c r="H42" s="4" t="n">
-        <v>25951.0</v>
-      </c>
-      <c r="I42" s="4" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="J42" s="6" t="n">
-        <v>0.0046240992639975335</v>
-      </c>
-      <c r="K42" s="7" t="n">
-        <v>0.7178333333333332</v>
-      </c>
-      <c r="L42" s="7" t="n">
-        <v>86.13999999999999</v>
-      </c>
-      <c r="M42" s="7" t="n">
-        <v>301.83000000000004</v>
-      </c>
-      <c r="N42" s="6" t="n">
-        <v>0.28539243945267195</v>
-      </c>
-      <c r="O42" s="5" t="n">
-        <v>3.503947062920828</v>
-      </c>
-      <c r="P42" s="4" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="Q42" s="4" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="R42" s="6" t="n">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="S42" s="4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="T42" s="4" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="U42" s="7" t="n">
-        <v>39.97</v>
-      </c>
-      <c r="V42" s="7" t="n">
-        <v>261.86</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>43276.0</v>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>43282.0</v>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
-        <is>
-          <t>BBBD-AUTO</t>
-        </is>
-      </c>
-      <c r="E43" s="1" t="inlineStr">
-        <is>
-          <t>PINK</t>
-        </is>
-      </c>
-      <c r="F43" s="1" t="inlineStr">
-        <is>
-          <t>BBBD-BUSB1605B-RD</t>
-        </is>
-      </c>
-      <c r="G43" s="1" t="inlineStr">
-        <is>
-          <t>B07CBPY63R</t>
-        </is>
-      </c>
-      <c r="H43" s="4" t="n">
-        <v>29825.0</v>
-      </c>
-      <c r="I43" s="4" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="J43" s="6" t="n">
-        <v>0.0021123218776194466</v>
-      </c>
-      <c r="K43" s="7" t="n">
-        <v>0.49507936507936506</v>
-      </c>
-      <c r="L43" s="7" t="n">
-        <v>31.189999999999998</v>
-      </c>
-      <c r="M43" s="7" t="n">
-        <v>119.96</v>
-      </c>
-      <c r="N43" s="6" t="n">
-        <v>0.26000333444481494</v>
-      </c>
-      <c r="O43" s="5" t="n">
-        <v>3.846104520679705</v>
-      </c>
-      <c r="P43" s="4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Q43" s="4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="R43" s="6" t="n">
-        <v>0.047619047619047616</v>
-      </c>
-      <c r="S43" s="4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T43" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U43" s="7" t="n">
-        <v>119.96</v>
-      </c>
-      <c r="V43" s="7" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>43276.0</v>
-      </c>
-      <c r="B44" s="2" t="n">
-        <v>43282.0</v>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
-        <is>
-          <t>GW</t>
-        </is>
-      </c>
-      <c r="E44" s="1" t="inlineStr">
-        <is>
-          <t>GW-AUTO</t>
-        </is>
-      </c>
-      <c r="F44" s="1" t="inlineStr">
-        <is>
-          <t>GW-LULHY-6.2</t>
-        </is>
-      </c>
-      <c r="G44" s="1" t="inlineStr">
-        <is>
-          <t>B078HD4M37</t>
-        </is>
-      </c>
-      <c r="H44" s="4" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="I44" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J44" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K44"/>
-      <c r="L44" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M44" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q44" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R44"/>
-      <c r="S44" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T44" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U44" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V44" s="7" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43277.0</v>
-      </c>
-      <c r="B45" s="2" t="n">
-        <v>43278.0</v>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
-        <is>
-          <t>新TZ</t>
-        </is>
-      </c>
-      <c r="E45" s="1" t="inlineStr">
-        <is>
-          <t>兔子</t>
-        </is>
-      </c>
-      <c r="F45" s="1" t="inlineStr">
-        <is>
-          <t>TZ-IUYL240-RABBIT-M</t>
-        </is>
-      </c>
-      <c r="G45" s="1" t="inlineStr">
-        <is>
-          <t>B07DF6XZQC</t>
-        </is>
-      </c>
-      <c r="H45" s="4" t="n">
-        <v>139.0</v>
-      </c>
-      <c r="I45" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J45" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K45"/>
-      <c r="L45" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M45" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N45"/>
-      <c r="O45"/>
-      <c r="P45" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q45" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R45"/>
-      <c r="S45" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T45" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U45" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V45" s="7" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>43276.0</v>
-      </c>
-      <c r="B46" s="2" t="n">
-        <v>43278.0</v>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
-        <is>
-          <t>SCF</t>
-        </is>
-      </c>
-      <c r="E46" s="1" t="inlineStr">
-        <is>
-          <t>SCF-</t>
-        </is>
-      </c>
-      <c r="F46" s="1" t="inlineStr">
-        <is>
-          <t>scarf-0001-Peony</t>
-        </is>
-      </c>
-      <c r="G46" s="1" t="inlineStr">
-        <is>
-          <t>B073GX87XH</t>
-        </is>
-      </c>
-      <c r="H46" s="4" t="n">
-        <v>11908.0</v>
-      </c>
-      <c r="I46" s="4" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="J46" s="6" t="n">
-        <v>0.001091703056768559</v>
-      </c>
-      <c r="K46" s="7" t="n">
-        <v>0.6115384615384616</v>
-      </c>
-      <c r="L46" s="7" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="M46" s="7" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="N46" s="6" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="O46" s="5" t="n">
-        <v>1.8867924528301887</v>
-      </c>
-      <c r="P46" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q46" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R46" s="6" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="S46" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T46" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U46" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V46" s="7" t="n">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>43279.0</v>
-      </c>
-      <c r="B47" s="2" t="n">
-        <v>43282.0</v>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
-        <is>
-          <t>BBBD-AUTO</t>
-        </is>
-      </c>
-      <c r="E47" s="1" t="inlineStr">
-        <is>
-          <t>PINK</t>
-        </is>
-      </c>
-      <c r="F47" s="1" t="inlineStr">
-        <is>
-          <t>BBBD-1605A-BL</t>
-        </is>
-      </c>
-      <c r="G47" s="1" t="inlineStr">
-        <is>
-          <t>B07D8S8R3B</t>
-        </is>
-      </c>
-      <c r="H47" s="4" t="n">
-        <v>4367.0</v>
-      </c>
-      <c r="I47" s="4" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="J47" s="6" t="n">
-        <v>0.0027478818410808336</v>
-      </c>
-      <c r="K47" s="7" t="n">
-        <v>0.46749999999999997</v>
-      </c>
-      <c r="L47" s="7" t="n">
-        <v>5.609999999999999</v>
-      </c>
-      <c r="M47" s="7" t="n">
-        <v>35.99</v>
-      </c>
-      <c r="N47" s="6" t="n">
-        <v>0.15587663239788827</v>
-      </c>
-      <c r="O47" s="5" t="n">
-        <v>6.415329768270945</v>
-      </c>
-      <c r="P47" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q47" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R47" s="6" t="n">
-        <v>0.08333333333333331</v>
-      </c>
-      <c r="S47" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T47" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U47" s="7" t="n">
-        <v>35.99</v>
-      </c>
-      <c r="V47" s="7" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>43279.0</v>
-      </c>
-      <c r="B48" s="2" t="n">
-        <v>43282.0</v>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
-        <is>
-          <t>TZZ</t>
-        </is>
-      </c>
-      <c r="E48" s="1" t="inlineStr">
-        <is>
-          <t>DOG</t>
-        </is>
-      </c>
-      <c r="F48" s="1" t="inlineStr">
-        <is>
-          <t>TZ-IUYL240LHY-DOT-S</t>
-        </is>
-      </c>
-      <c r="G48" s="1" t="inlineStr">
-        <is>
-          <t>B07CBPWQZT</t>
-        </is>
-      </c>
-      <c r="H48" s="4" t="n">
-        <v>414.0</v>
-      </c>
-      <c r="I48" s="4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J48" s="6" t="n">
-        <v>0.004830917874396135</v>
-      </c>
-      <c r="K48" s="7" t="n">
-        <v>0.545</v>
-      </c>
-      <c r="L48" s="7" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="M48" s="7" t="n">
-        <v>24.99</v>
-      </c>
-      <c r="N48" s="6" t="n">
-        <v>0.043617446978791524</v>
-      </c>
-      <c r="O48" s="5" t="n">
-        <v>22.92660550458715</v>
-      </c>
-      <c r="P48" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q48" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R48" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S48" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T48" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U48" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V48" s="7" t="n">
-        <v>24.99</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>43279.0</v>
-      </c>
-      <c r="B49" s="2" t="n">
-        <v>43282.0</v>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
-        <is>
-          <t>TZZ</t>
-        </is>
-      </c>
-      <c r="E49" s="1" t="inlineStr">
-        <is>
-          <t>DOG</t>
-        </is>
-      </c>
-      <c r="F49" s="1" t="inlineStr">
-        <is>
-          <t>TZ-IUYL240LHY-PAW-M</t>
-        </is>
-      </c>
-      <c r="G49" s="1" t="inlineStr">
-        <is>
-          <t>B079HPLTVC</t>
-        </is>
-      </c>
-      <c r="H49" s="4" t="n">
-        <v>997.0</v>
-      </c>
-      <c r="I49" s="4" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="J49" s="6" t="n">
-        <v>0.01905717151454363</v>
-      </c>
-      <c r="K49" s="7" t="n">
-        <v>0.883157894736842</v>
-      </c>
-      <c r="L49" s="7" t="n">
-        <v>16.779999999999998</v>
-      </c>
-      <c r="M49" s="7" t="n">
-        <v>18.99</v>
-      </c>
-      <c r="N49" s="6" t="n">
-        <v>0.8836229594523433</v>
-      </c>
-      <c r="O49" s="5" t="n">
-        <v>1.1317044100119191</v>
-      </c>
-      <c r="P49" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q49" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R49" s="6" t="n">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="S49" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T49" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U49" s="7" t="n">
-        <v>18.99</v>
-      </c>
-      <c r="V49" s="7" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>43279.0</v>
-      </c>
-      <c r="B50" s="2" t="n">
-        <v>43282.0</v>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
-        <is>
-          <t>TZ-ELPH</t>
-        </is>
-      </c>
-      <c r="E50" s="1" t="inlineStr">
-        <is>
-          <t>TZ-AUTO</t>
-        </is>
-      </c>
-      <c r="F50" s="1" t="inlineStr">
-        <is>
-          <t>TZ-IUYL240LHY-DOT-S</t>
-        </is>
-      </c>
-      <c r="G50" s="1" t="inlineStr">
-        <is>
-          <t>B07CBPWQZT</t>
-        </is>
-      </c>
-      <c r="H50" s="4" t="n">
-        <v>597.0</v>
-      </c>
-      <c r="I50" s="4" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J50" s="6" t="n">
-        <v>0.011725293132328308</v>
-      </c>
-      <c r="K50" s="7" t="n">
-        <v>0.5242857142857142</v>
-      </c>
-      <c r="L50" s="7" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="M50" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N50"/>
-      <c r="O50" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P50" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q50" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R50" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S50" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T50" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U50" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V50" s="7" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>43279.0</v>
-      </c>
-      <c r="B51" s="2" t="n">
-        <v>43282.0</v>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
-        <is>
-          <t>C-01</t>
-        </is>
-      </c>
-      <c r="E51" s="1" t="inlineStr">
-        <is>
-          <t>C01</t>
-        </is>
-      </c>
-      <c r="F51" s="1" t="inlineStr">
-        <is>
-          <t>scarf-0001-Peony</t>
-        </is>
-      </c>
-      <c r="G51" s="1" t="inlineStr">
-        <is>
-          <t>B073GX87XH</t>
-        </is>
-      </c>
-      <c r="H51" s="4" t="n">
-        <v>155.0</v>
-      </c>
-      <c r="I51" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J51" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K51"/>
-      <c r="L51" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M51" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N51"/>
-      <c r="O51"/>
-      <c r="P51" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q51" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R51"/>
-      <c r="S51" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T51" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U51" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V51" s="7" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/Luciphia/ad/download_data/商品推广广告商品报告.xlsx
+++ b/Luciphia/ad/download_data/商品推广广告商品报告.xlsx
@@ -84,14 +84,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="true"/>
-    <col min="2" max="2" width="12.140625" customWidth="true"/>
+    <col min="1" max="1" width="13.26953125" customWidth="true"/>
+    <col min="2" max="2" width="13.26953125" customWidth="true"/>
     <col min="3" max="3" width="4.51171875" customWidth="true"/>
     <col min="4" max="4" width="11.5859375" customWidth="true"/>
-    <col min="5" max="5" width="10.953125" customWidth="true"/>
-    <col min="6" max="6" width="22.765625" customWidth="true"/>
-    <col min="7" max="7" width="13.4375" customWidth="true"/>
-    <col min="8" max="8" width="6.65234375" customWidth="true"/>
+    <col min="5" max="5" width="12.90625" customWidth="true"/>
+    <col min="6" max="6" width="29.9765625" customWidth="true"/>
+    <col min="7" max="7" width="13.4453125" customWidth="true"/>
+    <col min="8" max="8" width="7.72265625" customWidth="true"/>
     <col min="9" max="9" width="4.9375" customWidth="true"/>
     <col min="10" max="10" width="9.71875" customWidth="true"/>
     <col min="11" max="11" width="13.8046875" customWidth="true"/>
@@ -222,10 +222,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>43289.0</v>
+        <v>43333.0</v>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
@@ -234,14 +234,14 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
+          <t>狗毛巾自动</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
           <t>MJ</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>MJ</t>
-        </is>
-      </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
           <t>MJ-IUYL230-BL-S</t>
@@ -253,38 +253,46 @@
         </is>
       </c>
       <c r="H2" s="4" t="n">
-        <v>20.0</v>
+        <v>927.0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="J2" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K2"/>
+        <v>0.0064724919093851144</v>
+      </c>
+      <c r="K2" s="7" t="n">
+        <v>0.8983333333333333</v>
+      </c>
       <c r="L2" s="7" t="n">
-        <v>0.0</v>
+        <v>5.39</v>
       </c>
       <c r="M2" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N2"/>
-      <c r="O2"/>
+        <v>36.0</v>
+      </c>
+      <c r="N2" s="6" t="n">
+        <v>0.1497222222222222</v>
+      </c>
+      <c r="O2" s="5" t="n">
+        <v>6.679035250463822</v>
+      </c>
       <c r="P2" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R2"/>
+        <v>4.0</v>
+      </c>
+      <c r="R2" s="6" t="n">
+        <v>0.16666666666666663</v>
+      </c>
       <c r="S2" s="4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="U2" s="7" t="n">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="V2" s="7" t="n">
         <v>0.0</v>
@@ -292,10 +300,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
@@ -304,14 +312,14 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
+          <t>狗毛巾自动</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
           <t>MJ</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>MJ</t>
-        </is>
-      </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
           <t>MJ-IUYL230-CF-S</t>
@@ -323,49 +331,57 @@
         </is>
       </c>
       <c r="H3" s="4" t="n">
-        <v>114.0</v>
+        <v>2581.0</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K3"/>
+        <v>0.00581170089112747</v>
+      </c>
+      <c r="K3" s="7" t="n">
+        <v>0.8333333333333334</v>
+      </c>
       <c r="L3" s="7" t="n">
-        <v>0.0</v>
+        <v>12.5</v>
       </c>
       <c r="M3" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N3"/>
-      <c r="O3"/>
+        <v>9.0</v>
+      </c>
+      <c r="N3" s="6" t="n">
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>0.72</v>
+      </c>
       <c r="P3" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R3"/>
+        <v>1.0</v>
+      </c>
+      <c r="R3" s="6" t="n">
+        <v>0.06666666666666667</v>
+      </c>
       <c r="S3" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U3" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V3" s="7" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
@@ -374,26 +390,26 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>MJ</t>
+          <t>AQD</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>MJ</t>
+          <t>AQD广告组 1</t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>MJ-IUYL230-PK-S</t>
+          <t>AQD-IUYL330-BK</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>B079GS1ZJR</t>
+          <t>B07BLQFM2G</t>
         </is>
       </c>
       <c r="H4" s="4" t="n">
-        <v>132.0</v>
+        <v>96.0</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>0.0</v>
@@ -432,10 +448,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
@@ -444,26 +460,26 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>C-01</t>
+          <t>AQD</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>AQD广告组 1</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>SCF-B01-004</t>
+          <t>AQD-IUYL330-PP</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>B075XH1TBD</t>
+          <t>B07BM3PGBP</t>
         </is>
       </c>
       <c r="H5" s="4" t="n">
-        <v>257.0</v>
+        <v>254.0</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>0.0</v>
@@ -502,10 +518,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
@@ -514,49 +530,55 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>1722</t>
+          <t>AQD</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>1722</t>
+          <t>AQD广告组 1</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>ST172-BL-L</t>
+          <t>AQD-IUYL330-RD</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>B074SZ6CL6</t>
+          <t>B07C8GM14Z</t>
         </is>
       </c>
       <c r="H6" s="4" t="n">
-        <v>246.0</v>
+        <v>94.0</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K6"/>
+        <v>0.010638297872340425</v>
+      </c>
+      <c r="K6" s="7" t="n">
+        <v>0.42</v>
+      </c>
       <c r="L6" s="7" t="n">
-        <v>0.0</v>
+        <v>0.42</v>
       </c>
       <c r="M6" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N6"/>
-      <c r="O6"/>
+      <c r="O6" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P6" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q6" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R6"/>
+      <c r="R6" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S6" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -572,10 +594,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
@@ -584,74 +606,76 @@
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>1722</t>
+          <t>LGQ-MANU</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>1722</t>
+          <t>RED</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>ST172-WR-L</t>
+          <t>LGQ-IUYL100-RD</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>B074SM3B1W</t>
+          <t>B0798PY6XT</t>
         </is>
       </c>
       <c r="H7" s="4" t="n">
-        <v>778.0</v>
+        <v>2491.0</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.002570694087403599</v>
+        <v>0.003613006824568446</v>
       </c>
       <c r="K7" s="7" t="n">
-        <v>0.30500000000000005</v>
+        <v>0.8622222222222223</v>
       </c>
       <c r="L7" s="7" t="n">
-        <v>0.6100000000000001</v>
+        <v>7.760000000000001</v>
       </c>
       <c r="M7" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N7"/>
+        <v>18.9</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.41058201058201066</v>
+      </c>
       <c r="O7" s="5" t="n">
-        <v>0.0</v>
+        <v>2.435567010309278</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R7" s="6" t="n">
-        <v>0.0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="S7" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U7" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V7" s="7" t="n">
-        <v>0.0</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
@@ -660,68 +684,76 @@
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>1722</t>
+          <t>狗毛毯手动</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>1722</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>ST172-WT2-M</t>
+          <t>TZ-IUYL240LHY-PAW-S</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>B074SKGP6T</t>
+          <t>B079HQPJP2</t>
         </is>
       </c>
       <c r="H8" s="4" t="n">
-        <v>55.0</v>
+        <v>3576.0</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K8"/>
+        <v>0.008668903803131992</v>
+      </c>
+      <c r="K8" s="7" t="n">
+        <v>0.6406451612903226</v>
+      </c>
       <c r="L8" s="7" t="n">
-        <v>0.0</v>
+        <v>19.86</v>
       </c>
       <c r="M8" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N8"/>
-      <c r="O8"/>
+        <v>52.97</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.3749292052104965</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>2.6671701913393755</v>
+      </c>
       <c r="P8" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R8"/>
+        <v>3.0</v>
+      </c>
+      <c r="R8" s="6" t="n">
+        <v>0.06451612903225806</v>
+      </c>
       <c r="S8" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U8" s="7" t="n">
-        <v>0.0</v>
+        <v>27.98</v>
       </c>
       <c r="V8" s="7" t="n">
-        <v>0.0</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>43283.0</v>
+        <v>43333.0</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>43289.0</v>
+        <v>43336.0</v>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
@@ -730,33 +762,31 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>AQD</t>
+          <t>狗毛毯自动</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>AQD广告组 1</t>
+          <t>TZ-AUTO</t>
         </is>
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>AQD-IUYL330-BK</t>
+          <t>TZ-IUYL240-DOT2-S</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>B07BLQFM2G</t>
+          <t>B07DF9YBBV</t>
         </is>
       </c>
       <c r="H9" s="4" t="n">
-        <v>118.0</v>
+        <v>0.0</v>
       </c>
       <c r="I9" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="J9" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="J9"/>
       <c r="K9"/>
       <c r="L9" s="7" t="n">
         <v>0.0</v>
@@ -788,10 +818,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>43288.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
@@ -800,74 +830,76 @@
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>AQD</t>
+          <t>狗毛毯手动</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>AQD广告组 1</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>AQD-IUYL330-PP</t>
+          <t>TZ-IUYL240LHY-ELPH-S</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>B07BM3PGBP</t>
+          <t>B07BGWTSX6</t>
         </is>
       </c>
       <c r="H10" s="4" t="n">
-        <v>145.0</v>
+        <v>8074.0</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>2.0</v>
+        <v>106.0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.013793103448275864</v>
+        <v>0.013128560812484518</v>
       </c>
       <c r="K10" s="7" t="n">
-        <v>0.24</v>
+        <v>0.7306603773584908</v>
       </c>
       <c r="L10" s="7" t="n">
-        <v>0.48</v>
+        <v>77.45000000000002</v>
       </c>
       <c r="M10" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N10"/>
+        <v>343.82</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>0.22526321912628705</v>
+      </c>
       <c r="O10" s="5" t="n">
-        <v>0.0</v>
+        <v>4.439251129761135</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="R10" s="6" t="n">
-        <v>0.0</v>
+        <v>0.169811320754717</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="U10" s="7" t="n">
-        <v>0.0</v>
+        <v>55.96</v>
       </c>
       <c r="V10" s="7" t="n">
-        <v>0.0</v>
+        <v>287.86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>43289.0</v>
+        <v>43333.0</v>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
@@ -876,68 +908,76 @@
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>AQD</t>
+          <t>SCF</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>AQD广告组 1</t>
+          <t>SCF-</t>
         </is>
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>AQD-IUYL330-RD</t>
+          <t>SCF-B01-006</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>B07C8GM14Z</t>
+          <t>B075XG5JVY</t>
         </is>
       </c>
       <c r="H11" s="4" t="n">
-        <v>90.0</v>
+        <v>540.0</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K11"/>
+        <v>0.003703703703703704</v>
+      </c>
+      <c r="K11" s="7" t="n">
+        <v>0.53</v>
+      </c>
       <c r="L11" s="7" t="n">
-        <v>0.0</v>
+        <v>1.06</v>
       </c>
       <c r="M11" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N11"/>
-      <c r="O11"/>
+        <v>10.0</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>9.433962264150942</v>
+      </c>
       <c r="P11" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R11"/>
+        <v>1.0</v>
+      </c>
+      <c r="R11" s="6" t="n">
+        <v>0.5</v>
+      </c>
       <c r="S11" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T11" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U11" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V11" s="7" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>43289.0</v>
+        <v>43335.0</v>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
@@ -946,49 +986,55 @@
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>AQD</t>
+          <t>SCF</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>AQD广告组 1</t>
+          <t>SCF-</t>
         </is>
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>AQD-IUYL330-YL</t>
+          <t>SCF-C01-011</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>B07BLQJYGS</t>
+          <t>B075WSSK1M</t>
         </is>
       </c>
       <c r="H12" s="4" t="n">
-        <v>91.0</v>
+        <v>223.0</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K12"/>
+        <v>0.004484304932735426</v>
+      </c>
+      <c r="K12" s="7" t="n">
+        <v>0.87</v>
+      </c>
       <c r="L12" s="7" t="n">
-        <v>0.0</v>
+        <v>0.87</v>
       </c>
       <c r="M12" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N12"/>
-      <c r="O12"/>
+      <c r="O12" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P12" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q12" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R12"/>
+      <c r="R12" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S12" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1004,10 +1050,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>43289.0</v>
+        <v>43333.0</v>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
@@ -1016,49 +1062,55 @@
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>LGQ-TEST</t>
+          <t>SCF</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>LGQ-PINK</t>
+          <t>SCF-</t>
         </is>
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>LGQ-IUYL100-PK</t>
+          <t>SCF-D01-006</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>B0798PX336</t>
+          <t>B075WRWK44</t>
         </is>
       </c>
       <c r="H13" s="4" t="n">
-        <v>1511.0</v>
+        <v>415.0</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K13"/>
+        <v>0.004819277108433735</v>
+      </c>
+      <c r="K13" s="7" t="n">
+        <v>0.53</v>
+      </c>
       <c r="L13" s="7" t="n">
-        <v>0.0</v>
+        <v>1.06</v>
       </c>
       <c r="M13" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N13"/>
-      <c r="O13"/>
+      <c r="O13" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P13" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q13" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R13"/>
+      <c r="R13" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S13" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1074,10 +1126,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>43289.0</v>
+        <v>43333.0</v>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
@@ -1086,49 +1138,55 @@
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>LGQ-TEST</t>
+          <t>SCF</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>LGQ-BLUE</t>
+          <t>SCF-</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>LGQ-IUYL100-BL</t>
+          <t>SCF-D01-007</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>B0798PCSXB</t>
+          <t>B075WPHHKW</t>
         </is>
       </c>
       <c r="H14" s="4" t="n">
-        <v>45.0</v>
+        <v>725.0</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K14"/>
+        <v>0.002758620689655172</v>
+      </c>
+      <c r="K14" s="7" t="n">
+        <v>0.8</v>
+      </c>
       <c r="L14" s="7" t="n">
-        <v>0.0</v>
+        <v>1.6</v>
       </c>
       <c r="M14" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N14"/>
-      <c r="O14"/>
+      <c r="O14" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P14" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R14"/>
+      <c r="R14" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S14" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1144,10 +1202,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
@@ -1156,74 +1214,76 @@
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>LGQ-TEST</t>
+          <t>狗毛毯自动</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>LGQ-RED</t>
+          <t>TZ-AUTO</t>
         </is>
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>LGQ-IUYL100-RD</t>
+          <t>TZ-IUYL240LHY-ELPH-S</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t>B0798PY6XT</t>
+          <t>B07BGWTSX6</t>
         </is>
       </c>
       <c r="H15" s="4" t="n">
-        <v>14989.0</v>
+        <v>108190.0</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>9.0</v>
+        <v>535.0</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>6.004403229034626E-4</v>
+        <v>0.004945004159349293</v>
       </c>
       <c r="K15" s="7" t="n">
-        <v>0.6011111111111112</v>
+        <v>0.8579065420560748</v>
       </c>
       <c r="L15" s="7" t="n">
-        <v>5.41</v>
+        <v>458.98</v>
       </c>
       <c r="M15" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N15"/>
+        <v>1128.34</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.4067745537692539</v>
+      </c>
       <c r="O15" s="5" t="n">
-        <v>0.0</v>
+        <v>2.458364198875768</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>0.0</v>
+        <v>65.0</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>0.0</v>
+        <v>66.0</v>
       </c>
       <c r="R15" s="6" t="n">
-        <v>0.0</v>
+        <v>0.12149532710280374</v>
       </c>
       <c r="S15" s="4" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="T15" s="4" t="n">
-        <v>0.0</v>
+        <v>56.0</v>
       </c>
       <c r="U15" s="7" t="n">
-        <v>0.0</v>
+        <v>139.9</v>
       </c>
       <c r="V15" s="7" t="n">
-        <v>0.0</v>
+        <v>988.44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>43289.0</v>
+        <v>43337.0</v>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
@@ -1232,38 +1292,38 @@
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>C-01</t>
+          <t>狗毛毯手动</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>DOG</t>
         </is>
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>SCF-B01-020</t>
+          <t>TZ-IUYL240LHY-DOT-S</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>B075XFQC8B</t>
+          <t>B07CBPWQZT</t>
         </is>
       </c>
       <c r="H16" s="4" t="n">
-        <v>148.0</v>
+        <v>597.0</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.006756756756756756</v>
+        <v>0.008375209380234505</v>
       </c>
       <c r="K16" s="7" t="n">
-        <v>0.5</v>
+        <v>0.616</v>
       </c>
       <c r="L16" s="7" t="n">
-        <v>0.5</v>
+        <v>3.08</v>
       </c>
       <c r="M16" s="7" t="n">
         <v>0.0</v>
@@ -1296,10 +1356,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
@@ -1308,74 +1368,76 @@
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>C-01</t>
+          <t>狗毛毯手动</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>C01</t>
+          <t>DOG</t>
         </is>
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>SCF-C01-012</t>
+          <t>TZ-IUYL240LHY-PAW-S</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>B075WQJ859</t>
+          <t>B079HQPJP2</t>
         </is>
       </c>
       <c r="H17" s="4" t="n">
-        <v>1085.0</v>
+        <v>6251.0</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>3.0</v>
+        <v>99.0</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.002764976958525346</v>
+        <v>0.01583746600543913</v>
       </c>
       <c r="K17" s="7" t="n">
-        <v>0.2733333333333334</v>
+        <v>0.7082828282828285</v>
       </c>
       <c r="L17" s="7" t="n">
-        <v>0.8200000000000001</v>
+        <v>70.12000000000002</v>
       </c>
       <c r="M17" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N17"/>
+        <v>209.88000000000002</v>
+      </c>
+      <c r="N17" s="6" t="n">
+        <v>0.3340956737183153</v>
+      </c>
       <c r="O17" s="5" t="n">
-        <v>0.0</v>
+        <v>2.9931545921277807</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="R17" s="6" t="n">
-        <v>0.0</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="S17" s="4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="T17" s="4" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="U17" s="7" t="n">
-        <v>0.0</v>
+        <v>55.96</v>
       </c>
       <c r="V17" s="7" t="n">
-        <v>0.0</v>
+        <v>153.92000000000002</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
@@ -1384,26 +1446,26 @@
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>C-01</t>
+          <t>BBBD-AUTO</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>PINK</t>
         </is>
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>SCF-B01-011</t>
+          <t>BD-LUHM010</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>B075XDTMSM</t>
+          <t>B07DJ8MH2Q</t>
         </is>
       </c>
       <c r="H18" s="4" t="n">
-        <v>119.0</v>
+        <v>104.0</v>
       </c>
       <c r="I18" s="4" t="n">
         <v>0.0</v>
@@ -1442,10 +1504,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>43289.0</v>
+        <v>43333.0</v>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
@@ -1454,76 +1516,74 @@
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>LGQ-MANU</t>
+          <t>狗碗手动</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>RED</t>
+          <t>狗碗</t>
         </is>
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>LGQ-IUYL100-RD</t>
+          <t>GW-LULHY-4.5</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
         <is>
-          <t>B0798PY6XT</t>
+          <t>B078HNLGWS</t>
         </is>
       </c>
       <c r="H19" s="4" t="n">
-        <v>9211.0</v>
+        <v>380.0</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.001411355987406362</v>
+        <v>0.007894736842105263</v>
       </c>
       <c r="K19" s="7" t="n">
-        <v>0.8199999999999998</v>
+        <v>0.9033333333333333</v>
       </c>
       <c r="L19" s="7" t="n">
-        <v>10.659999999999998</v>
+        <v>2.71</v>
       </c>
       <c r="M19" s="7" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="N19" s="6" t="n">
-        <v>0.5955307262569832</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N19"/>
       <c r="O19" s="5" t="n">
-        <v>1.679174484052533</v>
+        <v>0.0</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R19" s="6" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.0</v>
       </c>
       <c r="S19" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T19" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U19" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V19" s="7" t="n">
-        <v>17.9</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>43284.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
@@ -1532,55 +1592,49 @@
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>STT173</t>
+          <t>项圈手动</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>red</t>
         </is>
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>ST173-BL-XXL</t>
+          <t>XQ-IUYL320-PK-XL</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t>B074ST3T2H</t>
+          <t>B07BLZ8QQW</t>
         </is>
       </c>
       <c r="H20" s="4" t="n">
-        <v>394.0</v>
+        <v>38.0</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.017766497461928935</v>
-      </c>
-      <c r="K20" s="7" t="n">
-        <v>0.6542857142857142</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K20"/>
       <c r="L20" s="7" t="n">
-        <v>4.58</v>
+        <v>0.0</v>
       </c>
       <c r="M20" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N20"/>
-      <c r="O20" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O20"/>
       <c r="P20" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R20" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R20"/>
       <c r="S20" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1596,10 +1650,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
@@ -1608,7 +1662,7 @@
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>XQ-SD</t>
+          <t>项圈手动</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr">
@@ -1618,64 +1672,66 @@
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>XQ-IUYL260-RD-S</t>
+          <t>XQ-IUYL260-GN-M</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
         <is>
-          <t>B079GM3BXL</t>
+          <t>B079GML28B</t>
         </is>
       </c>
       <c r="H21" s="4" t="n">
-        <v>4628.0</v>
+        <v>4747.0</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.0054019014693171994</v>
+        <v>0.0042131872761744255</v>
       </c>
       <c r="K21" s="7" t="n">
-        <v>0.4864</v>
+        <v>0.6040000000000001</v>
       </c>
       <c r="L21" s="7" t="n">
-        <v>12.16</v>
+        <v>12.080000000000002</v>
       </c>
       <c r="M21" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N21"/>
+        <v>19.98</v>
+      </c>
+      <c r="N21" s="6" t="n">
+        <v>0.6046046046046046</v>
+      </c>
       <c r="O21" s="5" t="n">
-        <v>0.0</v>
+        <v>1.6539735099337747</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="R21" s="6" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="S21" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T21" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U21" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V21" s="7" t="n">
-        <v>0.0</v>
+        <v>19.98</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>43283.0</v>
+        <v>43334.0</v>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
@@ -1684,47 +1740,55 @@
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>新TZ</t>
+          <t>猫咪吊床</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>小熊</t>
+          <t>MMDC-LUHM</t>
         </is>
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>TZ-IUYL240-BEAR-S</t>
+          <t>MMDC-IUHM100-BK</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>B07DF6DDNM</t>
+          <t>B07FMJ852L</t>
         </is>
       </c>
       <c r="H22" s="4" t="n">
-        <v>0.0</v>
+        <v>918.0</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J22"/>
-      <c r="K22"/>
+        <v>5.0</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.0054466230936819175</v>
+      </c>
+      <c r="K22" s="7" t="n">
+        <v>0.522</v>
+      </c>
       <c r="L22" s="7" t="n">
-        <v>0.0</v>
+        <v>2.6100000000000003</v>
       </c>
       <c r="M22" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N22"/>
-      <c r="O22"/>
+      <c r="O22" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P22" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R22"/>
+      <c r="R22" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S22" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1740,10 +1804,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
@@ -1752,76 +1816,76 @@
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>TZZ</t>
+          <t>狗毛毯手动2</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>TZZ</t>
+          <t>PET</t>
         </is>
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>TZ-IUYL240LHY-ELPH-S</t>
+          <t>TZ-IUYL240-BEAR-S</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
         <is>
-          <t>B07BGWTSX6</t>
+          <t>B07DF6DDNM</t>
         </is>
       </c>
       <c r="H23" s="4" t="n">
-        <v>34775.0</v>
+        <v>1291.0</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>392.0</v>
+        <v>13.0</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.011272465851905104</v>
+        <v>0.010069713400464758</v>
       </c>
       <c r="K23" s="7" t="n">
-        <v>0.759591836734694</v>
+        <v>0.9138461538461539</v>
       </c>
       <c r="L23" s="7" t="n">
-        <v>297.76000000000005</v>
+        <v>11.88</v>
       </c>
       <c r="M23" s="7" t="n">
-        <v>1163.3300000000004</v>
+        <v>13.99</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.2559548881228886</v>
+        <v>0.8491779842744818</v>
       </c>
       <c r="O23" s="5" t="n">
-        <v>3.906938473938743</v>
+        <v>1.1776094276094276</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>66.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>67.0</v>
+        <v>1.0</v>
       </c>
       <c r="R23" s="6" t="n">
-        <v>0.1683673469387755</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="S23" s="4" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="T23" s="4" t="n">
-        <v>58.0</v>
+        <v>0.0</v>
       </c>
       <c r="U23" s="7" t="n">
-        <v>125.90999999999998</v>
+        <v>13.99</v>
       </c>
       <c r="V23" s="7" t="n">
-        <v>1037.4200000000003</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
@@ -1830,76 +1894,76 @@
       </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>TZ-ELPH</t>
+          <t>狗毛毯手动2</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>TZ-AUTO</t>
+          <t>PET</t>
         </is>
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>TZ-IUYL240LHY-ELPH-S</t>
+          <t>TZ-IUYL240LHY-STRAWBERRY-S</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
         <is>
-          <t>B07BGWTSX6</t>
+          <t>B07CBPP52D</t>
         </is>
       </c>
       <c r="H24" s="4" t="n">
-        <v>58564.0</v>
+        <v>5152.0</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>204.0</v>
+        <v>38.0</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.0034833686223618605</v>
+        <v>0.007375776397515528</v>
       </c>
       <c r="K24" s="7" t="n">
-        <v>0.6632352941176469</v>
+        <v>0.8589473684210527</v>
       </c>
       <c r="L24" s="7" t="n">
-        <v>135.29999999999998</v>
+        <v>32.64</v>
       </c>
       <c r="M24" s="7" t="n">
-        <v>397.76</v>
+        <v>88.94</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.34015486725663713</v>
+        <v>0.36698898133573205</v>
       </c>
       <c r="O24" s="5" t="n">
-        <v>2.939837398373984</v>
+        <v>2.724877450980392</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>24.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>24.0</v>
+        <v>6.0</v>
       </c>
       <c r="R24" s="6" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="S24" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T24" s="4" t="n">
         <v>5.0</v>
       </c>
-      <c r="T24" s="4" t="n">
-        <v>19.0</v>
-      </c>
       <c r="U24" s="7" t="n">
-        <v>69.95</v>
+        <v>13.99</v>
       </c>
       <c r="V24" s="7" t="n">
-        <v>327.81</v>
+        <v>74.95</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>43283.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
@@ -1908,76 +1972,76 @@
       </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>BBBD-AUTO</t>
+          <t>狗毛毯手动</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>PINK</t>
+          <t>baby blanket</t>
         </is>
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>BBBD-BUSB1605B-RD</t>
+          <t>TZ-IUYL240-DOT2-S</t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr">
         <is>
-          <t>B07CBPY63R</t>
+          <t>B07DF9YBBV</t>
         </is>
       </c>
       <c r="H25" s="4" t="n">
-        <v>1977.0</v>
+        <v>30221.0</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>7.0</v>
+        <v>329.0</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.0035407182599898838</v>
+        <v>0.01088646967340591</v>
       </c>
       <c r="K25" s="7" t="n">
-        <v>0.31428571428571433</v>
+        <v>0.8777811550151975</v>
       </c>
       <c r="L25" s="7" t="n">
-        <v>2.2</v>
+        <v>288.78999999999996</v>
       </c>
       <c r="M25" s="7" t="n">
-        <v>29.99</v>
+        <v>767.5800000000002</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.0733577859286429</v>
+        <v>0.3762343990202974</v>
       </c>
       <c r="O25" s="5" t="n">
-        <v>13.63181818181818</v>
+        <v>2.6579175179195964</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>1.0</v>
+        <v>40.0</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>1.0</v>
+        <v>42.0</v>
       </c>
       <c r="R25" s="6" t="n">
-        <v>0.14285714285714285</v>
+        <v>0.12158054711246201</v>
       </c>
       <c r="S25" s="4" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="T25" s="4" t="n">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="U25" s="7" t="n">
-        <v>29.99</v>
+        <v>111.91999999999999</v>
       </c>
       <c r="V25" s="7" t="n">
-        <v>0.0</v>
+        <v>655.6600000000002</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
@@ -1986,74 +2050,76 @@
       </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>GW</t>
+          <t>狗毛毯手动</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>GW-AUTO</t>
+          <t>baby blanket</t>
         </is>
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>GW-LULHY-6.2</t>
+          <t>TZ-IUYL240-BEAR-S</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>B078HD4M37</t>
+          <t>B07DF6DDNM</t>
         </is>
       </c>
       <c r="H26" s="4" t="n">
-        <v>169.0</v>
+        <v>9149.0</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>2.0</v>
+        <v>86.0</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.011834319526627219</v>
+        <v>0.009399934419062193</v>
       </c>
       <c r="K26" s="7" t="n">
-        <v>0.345</v>
+        <v>0.8512790697674418</v>
       </c>
       <c r="L26" s="7" t="n">
-        <v>0.69</v>
+        <v>73.21</v>
       </c>
       <c r="M26" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N26"/>
+        <v>118.92999999999998</v>
+      </c>
+      <c r="N26" s="6" t="n">
+        <v>0.6155721853190953</v>
+      </c>
       <c r="O26" s="5" t="n">
-        <v>0.0</v>
+        <v>1.6245048490643352</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="R26" s="6" t="n">
-        <v>0.0</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="S26" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="T26" s="4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="U26" s="7" t="n">
-        <v>0.0</v>
+        <v>41.97</v>
       </c>
       <c r="V26" s="7" t="n">
-        <v>0.0</v>
+        <v>76.96</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>43289.0</v>
+        <v>43335.0</v>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
@@ -2062,76 +2128,76 @@
       </c>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>BBBD-AUTO</t>
+          <t>狗毛毯手动</t>
         </is>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>PINK</t>
+          <t>DOG</t>
         </is>
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>BBBD-1605A-BL</t>
+          <t>TZ-IUYL240LHY-STRAWBERRY-S</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
         <is>
-          <t>B07D8S8R3B</t>
+          <t>B07CBPP52D</t>
         </is>
       </c>
       <c r="H27" s="4" t="n">
-        <v>11865.0</v>
+        <v>707.0</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>43.0</v>
+        <v>16.0</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.0036241045090602613</v>
+        <v>0.02263083451202263</v>
       </c>
       <c r="K27" s="7" t="n">
-        <v>0.4430232558139534</v>
+        <v>0.7600000000000001</v>
       </c>
       <c r="L27" s="7" t="n">
-        <v>19.049999999999997</v>
+        <v>12.160000000000002</v>
       </c>
       <c r="M27" s="7" t="n">
-        <v>35.99</v>
+        <v>51.97</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.5293136982495137</v>
+        <v>0.23398114296709643</v>
       </c>
       <c r="O27" s="5" t="n">
-        <v>1.8892388451443574</v>
+        <v>4.273848684210526</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="R27" s="6" t="n">
-        <v>0.023255813953488372</v>
+        <v>0.1875</v>
       </c>
       <c r="S27" s="4" t="n">
         <v>1.0</v>
       </c>
       <c r="T27" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U27" s="7" t="n">
-        <v>35.99</v>
+        <v>13.99</v>
       </c>
       <c r="V27" s="7" t="n">
-        <v>0.0</v>
+        <v>37.98</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>43284.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
@@ -2140,74 +2206,76 @@
       </c>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>TZZ</t>
+          <t>狗毛毯手动2</t>
         </is>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>DOG</t>
+          <t>ANIMAL</t>
         </is>
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>TZ-IUYL240LHY-DOT-S</t>
+          <t>TZ-IUYL240LHY-ELPH-S</t>
         </is>
       </c>
       <c r="G28" s="1" t="inlineStr">
         <is>
-          <t>B07CBPWQZT</t>
+          <t>B07BGWTSX6</t>
         </is>
       </c>
       <c r="H28" s="4" t="n">
-        <v>249.0</v>
+        <v>30199.0</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>3.0</v>
+        <v>206.0</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.012048192771084338</v>
+        <v>0.006821417927745952</v>
       </c>
       <c r="K28" s="7" t="n">
-        <v>0.6533333333333333</v>
+        <v>0.8384466019417475</v>
       </c>
       <c r="L28" s="7" t="n">
-        <v>1.96</v>
+        <v>172.71999999999997</v>
       </c>
       <c r="M28" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N28"/>
+        <v>409.80000000000007</v>
+      </c>
+      <c r="N28" s="6" t="n">
+        <v>0.42147388970229366</v>
+      </c>
       <c r="O28" s="5" t="n">
-        <v>0.0</v>
+        <v>2.372626215840668</v>
       </c>
       <c r="P28" s="4" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="R28" s="6" t="n">
-        <v>0.0</v>
+        <v>0.10194174757281553</v>
       </c>
       <c r="S28" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T28" s="4" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="U28" s="7" t="n">
-        <v>0.0</v>
+        <v>27.98</v>
       </c>
       <c r="V28" s="7" t="n">
-        <v>0.0</v>
+        <v>381.82000000000005</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>43288.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
@@ -2216,74 +2284,76 @@
       </c>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>TZZ</t>
+          <t>狗毛毯手动2</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>DOG</t>
+          <t>ANIMAL</t>
         </is>
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>TZ-IUYL240LHY-PAW-M</t>
+          <t>TZ-IUYL240LHY-DOT-S</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
         <is>
-          <t>B079HPLTVC</t>
+          <t>B07CBPWQZT</t>
         </is>
       </c>
       <c r="H29" s="4" t="n">
-        <v>509.0</v>
+        <v>6560.0</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>6.0</v>
+        <v>54.0</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.011787819253438114</v>
+        <v>0.008231707317073171</v>
       </c>
       <c r="K29" s="7" t="n">
-        <v>0.8650000000000001</v>
+        <v>0.8272222222222223</v>
       </c>
       <c r="L29" s="7" t="n">
-        <v>5.19</v>
+        <v>44.67</v>
       </c>
       <c r="M29" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N29"/>
+        <v>138.92</v>
+      </c>
+      <c r="N29" s="6" t="n">
+        <v>0.32155197235819183</v>
+      </c>
       <c r="O29" s="5" t="n">
-        <v>0.0</v>
+        <v>3.1099171703604203</v>
       </c>
       <c r="P29" s="4" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="R29" s="6" t="n">
-        <v>0.0</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="S29" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T29" s="4" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="U29" s="7" t="n">
-        <v>0.0</v>
+        <v>13.99</v>
       </c>
       <c r="V29" s="7" t="n">
-        <v>0.0</v>
+        <v>124.92999999999998</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
@@ -2292,74 +2362,76 @@
       </c>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>TZ-ELPH</t>
+          <t>狗毛毯手动</t>
         </is>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>TZ-AUTO</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>TZ-IUYL240LHY-DOT-S</t>
+          <t>TZ-IUYL240-DOT2-S</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
         <is>
-          <t>B07CBPWQZT</t>
+          <t>B07DF9YBBV</t>
         </is>
       </c>
       <c r="H30" s="4" t="n">
-        <v>1113.0</v>
+        <v>2680.0</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>12.0</v>
+        <v>57.0</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.01078167115902965</v>
+        <v>0.02126865671641791</v>
       </c>
       <c r="K30" s="7" t="n">
-        <v>0.6191666666666666</v>
+        <v>0.7322807017543861</v>
       </c>
       <c r="L30" s="7" t="n">
-        <v>7.43</v>
+        <v>41.74000000000001</v>
       </c>
       <c r="M30" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N30"/>
+        <v>170.9</v>
+      </c>
+      <c r="N30" s="6" t="n">
+        <v>0.24423639555295498</v>
+      </c>
       <c r="O30" s="5" t="n">
-        <v>0.0</v>
+        <v>4.094393866794441</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="R30" s="6" t="n">
-        <v>0.0</v>
+        <v>0.17543859649122806</v>
       </c>
       <c r="S30" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="T30" s="4" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="U30" s="7" t="n">
-        <v>0.0</v>
+        <v>41.97</v>
       </c>
       <c r="V30" s="7" t="n">
-        <v>0.0</v>
+        <v>128.92999999999998</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>43289.0</v>
+        <v>43332.0</v>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
@@ -2368,55 +2440,49 @@
       </c>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>C-01</t>
+          <t>猫吊床手动</t>
         </is>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>C01</t>
+          <t>猫吊床</t>
         </is>
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>scarf-0001-Peony</t>
+          <t>MMDC-IUHM100-BK</t>
         </is>
       </c>
       <c r="G31" s="1" t="inlineStr">
         <is>
-          <t>B073GX87XH</t>
+          <t>B07FMJ852L</t>
         </is>
       </c>
       <c r="H31" s="4" t="n">
-        <v>79.0</v>
+        <v>3.0</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>0.025316455696202535</v>
-      </c>
-      <c r="K31" s="7" t="n">
-        <v>0.08499999999999999</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K31"/>
       <c r="L31" s="7" t="n">
-        <v>0.16999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="M31" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N31"/>
-      <c r="O31" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O31"/>
       <c r="P31" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q31" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R31" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R31"/>
       <c r="S31" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2432,10 +2498,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>43284.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>43287.0</v>
+        <v>43334.0</v>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
@@ -2444,55 +2510,49 @@
       </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>BBBD-AUTO</t>
+          <t>猫吊床手动</t>
         </is>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>PINK</t>
+          <t>猫吊床</t>
         </is>
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>BBBD-1605A-RD</t>
+          <t>MMDC-IUHM100-BL</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr">
         <is>
-          <t>B07C178M2R</t>
+          <t>B07FM7ZQJJ</t>
         </is>
       </c>
       <c r="H32" s="4" t="n">
-        <v>1236.0</v>
+        <v>70.0</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.0032362459546925572</v>
-      </c>
-      <c r="K32" s="7" t="n">
-        <v>0.43500000000000005</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K32"/>
       <c r="L32" s="7" t="n">
-        <v>1.7400000000000002</v>
+        <v>0.0</v>
       </c>
       <c r="M32" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N32"/>
-      <c r="O32" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O32"/>
       <c r="P32" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q32" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R32" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R32"/>
       <c r="S32" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2508,10 +2568,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>43284.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
@@ -2520,7 +2580,7 @@
       </c>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>TZZ</t>
+          <t>狗毛毯手动</t>
         </is>
       </c>
       <c r="E33" s="1" t="inlineStr">
@@ -2530,66 +2590,66 @@
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>TZ-IUYL240LHY-PAW-S</t>
+          <t>TZ-IUYL240LHY-ELPH-S</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
         <is>
-          <t>B079HQPJP2</t>
+          <t>B07BGWTSX6</t>
         </is>
       </c>
       <c r="H33" s="4" t="n">
-        <v>1279.0</v>
+        <v>37541.0</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>14.0</v>
+        <v>405.0</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.0109460516028147</v>
+        <v>0.010788204895980395</v>
       </c>
       <c r="K33" s="7" t="n">
-        <v>0.6900000000000001</v>
+        <v>0.893259259259259</v>
       </c>
       <c r="L33" s="7" t="n">
-        <v>9.66</v>
+        <v>361.76999999999987</v>
       </c>
       <c r="M33" s="7" t="n">
-        <v>18.99</v>
+        <v>1378.2200000000005</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.5086887835703002</v>
+        <v>0.26249074893703456</v>
       </c>
       <c r="O33" s="5" t="n">
-        <v>1.96583850931677</v>
+        <v>3.809658070044506</v>
       </c>
       <c r="P33" s="4" t="n">
-        <v>1.0</v>
+        <v>73.0</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>1.0</v>
+        <v>78.0</v>
       </c>
       <c r="R33" s="6" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.1802469135802469</v>
       </c>
       <c r="S33" s="4" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="T33" s="4" t="n">
-        <v>1.0</v>
+        <v>63.0</v>
       </c>
       <c r="U33" s="7" t="n">
-        <v>0.0</v>
+        <v>209.85000000000005</v>
       </c>
       <c r="V33" s="7" t="n">
-        <v>18.99</v>
+        <v>1168.3700000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>43287.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
@@ -2598,49 +2658,55 @@
       </c>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>BBBD-AUTO</t>
+          <t>狗毛毯手动</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>PINK</t>
+          <t>baby blanket</t>
         </is>
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>BD-LUHM010</t>
+          <t>TZ-IUYL240-LOVE-S</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
         <is>
-          <t>B07DJ8MH2Q</t>
+          <t>B07DL5G8KV</t>
         </is>
       </c>
       <c r="H34" s="4" t="n">
-        <v>211.0</v>
+        <v>1762.0</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K34"/>
+        <v>0.0028376844494892167</v>
+      </c>
+      <c r="K34" s="7" t="n">
+        <v>0.8</v>
+      </c>
       <c r="L34" s="7" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="M34" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N34"/>
-      <c r="O34"/>
+      <c r="O34" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P34" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q34" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R34"/>
+      <c r="R34" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S34" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2656,10 +2722,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>43287.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
@@ -2668,76 +2734,76 @@
       </c>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>BBBD-TEST</t>
+          <t>狗毛毯手动</t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr">
         <is>
-          <t>XX Carrier</t>
+          <t>baby blanket</t>
         </is>
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>BBBD-1605A-BL</t>
+          <t>TZ-IUYL240-RABBIT-S</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
         <is>
-          <t>B07D8S8R3B</t>
+          <t>B07DFCKR8T</t>
         </is>
       </c>
       <c r="H35" s="4" t="n">
-        <v>694.0</v>
+        <v>918.0</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>0.0014409221902017292</v>
+        <v>0.010893246187363835</v>
       </c>
       <c r="K35" s="7" t="n">
-        <v>0.29</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="L35" s="7" t="n">
-        <v>0.29</v>
+        <v>5.6</v>
       </c>
       <c r="M35" s="7" t="n">
-        <v>35.99</v>
+        <v>32.98</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.008057793831619893</v>
+        <v>0.16979987871437235</v>
       </c>
       <c r="O35" s="5" t="n">
-        <v>124.10344827586208</v>
+        <v>5.889285714285714</v>
       </c>
       <c r="P35" s="4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R35" s="6" t="n">
-        <v>1.0</v>
+        <v>0.2</v>
       </c>
       <c r="S35" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T35" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U35" s="7" t="n">
-        <v>35.99</v>
+        <v>0.0</v>
       </c>
       <c r="V35" s="7" t="n">
-        <v>0.0</v>
+        <v>32.98</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>43287.0</v>
+        <v>43335.0</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
@@ -2746,55 +2812,49 @@
       </c>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>BBBD-TEST</t>
+          <t>狗窝自动</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr">
         <is>
-          <t>XX Carrier</t>
+          <t>GW-IUHM</t>
         </is>
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>BBBD-BUSB1605B-PK</t>
+          <t>GW-IUHM-BONE-CF-S</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
         <is>
-          <t>B07C1KX15Z</t>
+          <t>B07FM6XK1D</t>
         </is>
       </c>
       <c r="H36" s="4" t="n">
-        <v>472.0</v>
+        <v>3.0</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J36" s="6" t="n">
-        <v>0.00211864406779661</v>
-      </c>
-      <c r="K36" s="7" t="n">
-        <v>0.25</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K36"/>
       <c r="L36" s="7" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="M36" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N36"/>
-      <c r="O36" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O36"/>
       <c r="P36" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q36" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R36" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R36"/>
       <c r="S36" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2810,10 +2870,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>43287.0</v>
+        <v>43336.0</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
@@ -2822,55 +2882,49 @@
       </c>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>BBBD-TEST</t>
+          <t>狗窝自动</t>
         </is>
       </c>
       <c r="E37" s="1" t="inlineStr">
         <is>
-          <t>XX Carrier</t>
+          <t>GW-IUHM</t>
         </is>
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>BD-LUHM010</t>
+          <t>GW-IUHM-BONE-BK-XL</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr">
         <is>
-          <t>B07DJ8MH2Q</t>
+          <t>B07FM6X6DD</t>
         </is>
       </c>
       <c r="H37" s="4" t="n">
-        <v>4647.0</v>
+        <v>154.0</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="J37" s="6" t="n">
-        <v>0.0032278889606197547</v>
-      </c>
-      <c r="K37" s="7" t="n">
-        <v>1.0186666666666666</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K37"/>
       <c r="L37" s="7" t="n">
-        <v>15.28</v>
+        <v>0.0</v>
       </c>
       <c r="M37" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N37"/>
-      <c r="O37" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O37"/>
       <c r="P37" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q37" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R37" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R37"/>
       <c r="S37" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2886,10 +2940,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>43287.0</v>
+        <v>43336.0</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
@@ -2898,55 +2952,49 @@
       </c>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>BBBD-AUTO</t>
+          <t>狗窝自动</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr">
         <is>
-          <t>PINK</t>
+          <t>GW-IUHM</t>
         </is>
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>BBBD-BUSB1605B-PK</t>
+          <t>GW-IUHM-BONE-PK-XL</t>
         </is>
       </c>
       <c r="G38" s="1" t="inlineStr">
         <is>
-          <t>B07C1KX15Z</t>
+          <t>B07FM7ZB3H</t>
         </is>
       </c>
       <c r="H38" s="4" t="n">
-        <v>2606.0</v>
+        <v>8.0</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.0034535686876438986</v>
-      </c>
-      <c r="K38" s="7" t="n">
-        <v>0.5477777777777777</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K38"/>
       <c r="L38" s="7" t="n">
-        <v>4.93</v>
+        <v>0.0</v>
       </c>
       <c r="M38" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N38"/>
-      <c r="O38" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O38"/>
       <c r="P38" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q38" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R38" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R38"/>
       <c r="S38" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2957,6 +3005,2682 @@
         <v>0.0</v>
       </c>
       <c r="V38" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <t>狗窝自动</t>
+        </is>
+      </c>
+      <c r="E39" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM</t>
+        </is>
+      </c>
+      <c r="F39" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-BONE-LB-XL</t>
+        </is>
+      </c>
+      <c r="G39" s="1" t="inlineStr">
+        <is>
+          <t>B07FMBYQDN</t>
+        </is>
+      </c>
+      <c r="H39" s="4" t="n">
+        <v>260.0</v>
+      </c>
+      <c r="I39" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J39" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K39"/>
+      <c r="L39" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M39" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q39" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R39"/>
+      <c r="S39" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T39" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U39" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V39" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D40" s="1" t="inlineStr">
+        <is>
+          <t>狗窝自动</t>
+        </is>
+      </c>
+      <c r="E40" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM</t>
+        </is>
+      </c>
+      <c r="F40" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-PAW-OR-XL</t>
+        </is>
+      </c>
+      <c r="G40" s="1" t="inlineStr">
+        <is>
+          <t>B07FMD84PY</t>
+        </is>
+      </c>
+      <c r="H40" s="4" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="I40" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J40" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K40"/>
+      <c r="L40" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M40" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q40" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R40"/>
+      <c r="S40" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T40" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U40" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V40" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <t>狗窝自动</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM</t>
+        </is>
+      </c>
+      <c r="F41" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-PAW-PK-XL</t>
+        </is>
+      </c>
+      <c r="G41" s="1" t="inlineStr">
+        <is>
+          <t>B07FM7ZXWX</t>
+        </is>
+      </c>
+      <c r="H41" s="4" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="I41" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J41" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K41"/>
+      <c r="L41" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M41" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q41" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R41"/>
+      <c r="S41" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T41" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U41" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V41" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>狗窝自动</t>
+        </is>
+      </c>
+      <c r="E42" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM</t>
+        </is>
+      </c>
+      <c r="F42" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-BONE-PK-M</t>
+        </is>
+      </c>
+      <c r="G42" s="1" t="inlineStr">
+        <is>
+          <t>B07FM6X9XD</t>
+        </is>
+      </c>
+      <c r="H42" s="4" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="I42" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J42" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K42"/>
+      <c r="L42" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M42" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q42" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R42"/>
+      <c r="S42" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T42" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U42" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V42" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>狗窝自动</t>
+        </is>
+      </c>
+      <c r="E43" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM</t>
+        </is>
+      </c>
+      <c r="F43" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-PAW-LB-M</t>
+        </is>
+      </c>
+      <c r="G43" s="1" t="inlineStr">
+        <is>
+          <t>B07FM6WZNK</t>
+        </is>
+      </c>
+      <c r="H43" s="4" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="I43" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J43" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K43"/>
+      <c r="L43" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M43" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q43" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R43"/>
+      <c r="S43" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T43" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U43" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V43" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <t>狗窝自动</t>
+        </is>
+      </c>
+      <c r="E44" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM</t>
+        </is>
+      </c>
+      <c r="F44" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-PAW-GN-M</t>
+        </is>
+      </c>
+      <c r="G44" s="1" t="inlineStr">
+        <is>
+          <t>B07FM5RP8F</t>
+        </is>
+      </c>
+      <c r="H44" s="4" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="I44" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J44" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K44"/>
+      <c r="L44" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M44" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q44" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R44"/>
+      <c r="S44" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T44" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U44" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V44" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>狗窝自动</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM</t>
+        </is>
+      </c>
+      <c r="F45" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-BONE-PK-S</t>
+        </is>
+      </c>
+      <c r="G45" s="1" t="inlineStr">
+        <is>
+          <t>B07FM6X922</t>
+        </is>
+      </c>
+      <c r="H45" s="4" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="I45" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J45" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K45"/>
+      <c r="L45" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M45" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q45" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R45"/>
+      <c r="S45" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T45" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U45" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V45" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>43335.0</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D46" s="1" t="inlineStr">
+        <is>
+          <t>狗窝自动</t>
+        </is>
+      </c>
+      <c r="E46" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM</t>
+        </is>
+      </c>
+      <c r="F46" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-BONE-BK-S</t>
+        </is>
+      </c>
+      <c r="G46" s="1" t="inlineStr">
+        <is>
+          <t>B07FM9Z4WW</t>
+        </is>
+      </c>
+      <c r="H46" s="4" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="I46" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J46" s="6" t="n">
+        <v>0.02941176470588235</v>
+      </c>
+      <c r="K46" s="7" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="L46" s="7" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M46" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N46"/>
+      <c r="O46" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P46" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q46" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R46" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S46" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T46" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U46" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V46" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>狗窝自动</t>
+        </is>
+      </c>
+      <c r="E47" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM</t>
+        </is>
+      </c>
+      <c r="F47" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-BONE-CF-M</t>
+        </is>
+      </c>
+      <c r="G47" s="1" t="inlineStr">
+        <is>
+          <t>B07FMJZCZ9</t>
+        </is>
+      </c>
+      <c r="H47" s="4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="I47" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J47" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K47"/>
+      <c r="L47" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M47" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q47" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R47"/>
+      <c r="S47" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T47" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U47" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V47" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>狗窝自动</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM</t>
+        </is>
+      </c>
+      <c r="F48" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-PAW-PK-M</t>
+        </is>
+      </c>
+      <c r="G48" s="1" t="inlineStr">
+        <is>
+          <t>B07FMJ672F</t>
+        </is>
+      </c>
+      <c r="H48" s="4" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="I48" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J48" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K48"/>
+      <c r="L48" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M48" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q48" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R48"/>
+      <c r="S48" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T48" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U48" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V48" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <t>狗窝自动</t>
+        </is>
+      </c>
+      <c r="E49" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM</t>
+        </is>
+      </c>
+      <c r="F49" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-BONE-PK-L</t>
+        </is>
+      </c>
+      <c r="G49" s="1" t="inlineStr">
+        <is>
+          <t>B07FM8ZD2W</t>
+        </is>
+      </c>
+      <c r="H49" s="4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I49" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J49" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K49"/>
+      <c r="L49" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M49" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q49" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R49"/>
+      <c r="S49" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T49" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U49" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V49" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C50" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D50" s="1" t="inlineStr">
+        <is>
+          <t>狗窝自动</t>
+        </is>
+      </c>
+      <c r="E50" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM</t>
+        </is>
+      </c>
+      <c r="F50" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-PAW-OR-L</t>
+        </is>
+      </c>
+      <c r="G50" s="1" t="inlineStr">
+        <is>
+          <t>B07FM1N386</t>
+        </is>
+      </c>
+      <c r="H50" s="4" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="I50" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J50" s="6" t="n">
+        <v>0.006329113924050634</v>
+      </c>
+      <c r="K50" s="7" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L50" s="7" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="M50" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N50"/>
+      <c r="O50" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P50" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q50" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R50" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S50" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T50" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U50" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V50" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D51" s="1" t="inlineStr">
+        <is>
+          <t>狗窝自动</t>
+        </is>
+      </c>
+      <c r="E51" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM</t>
+        </is>
+      </c>
+      <c r="F51" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-BONE-GR-XL</t>
+        </is>
+      </c>
+      <c r="G51" s="1" t="inlineStr">
+        <is>
+          <t>B07FM6XTK8</t>
+        </is>
+      </c>
+      <c r="H51" s="4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I51" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J51" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K51"/>
+      <c r="L51" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M51" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q51" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R51"/>
+      <c r="S51" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T51" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U51" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V51" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C52" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D52" s="1" t="inlineStr">
+        <is>
+          <t>狗窝自动</t>
+        </is>
+      </c>
+      <c r="E52" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM</t>
+        </is>
+      </c>
+      <c r="F52" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-BONE-LB-M</t>
+        </is>
+      </c>
+      <c r="G52" s="1" t="inlineStr">
+        <is>
+          <t>B07FMJ7PGR</t>
+        </is>
+      </c>
+      <c r="H52" s="4" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="I52" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J52" s="6" t="n">
+        <v>0.0049261083743842365</v>
+      </c>
+      <c r="K52" s="7" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L52" s="7" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="M52" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N52"/>
+      <c r="O52" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P52" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q52" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R52" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S52" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T52" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U52" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V52" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D53" s="1" t="inlineStr">
+        <is>
+          <t>狗窝自动</t>
+        </is>
+      </c>
+      <c r="E53" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM</t>
+        </is>
+      </c>
+      <c r="F53" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-PAW-PK-L</t>
+        </is>
+      </c>
+      <c r="G53" s="1" t="inlineStr">
+        <is>
+          <t>B07FM7Z6C9</t>
+        </is>
+      </c>
+      <c r="H53" s="4" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="I53" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J53" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K53"/>
+      <c r="L53" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M53" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q53" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R53"/>
+      <c r="S53" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T53" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U53" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V53" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D54" s="1" t="inlineStr">
+        <is>
+          <t>狗窝自动</t>
+        </is>
+      </c>
+      <c r="E54" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM</t>
+        </is>
+      </c>
+      <c r="F54" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-BONE-BK-L</t>
+        </is>
+      </c>
+      <c r="G54" s="1" t="inlineStr">
+        <is>
+          <t>B07FM7ZNYH</t>
+        </is>
+      </c>
+      <c r="H54" s="4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="I54" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J54" s="6" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="K54" s="7" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="L54" s="7" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="M54" s="7" t="n">
+        <v>27.99</v>
+      </c>
+      <c r="N54" s="6" t="n">
+        <v>0.017506252232940337</v>
+      </c>
+      <c r="O54" s="5" t="n">
+        <v>57.12244897959184</v>
+      </c>
+      <c r="P54" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q54" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R54" s="6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S54" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T54" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U54" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V54" s="7" t="n">
+        <v>27.99</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D55" s="1" t="inlineStr">
+        <is>
+          <t>狗窝自动</t>
+        </is>
+      </c>
+      <c r="E55" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM</t>
+        </is>
+      </c>
+      <c r="F55" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-BONE-BK-M</t>
+        </is>
+      </c>
+      <c r="G55" s="1" t="inlineStr">
+        <is>
+          <t>B07FM5RG53</t>
+        </is>
+      </c>
+      <c r="H55" s="4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I55" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J55" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K55"/>
+      <c r="L55" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M55" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q55" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R55"/>
+      <c r="S55" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T55" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U55" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V55" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C56" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D56" s="1" t="inlineStr">
+        <is>
+          <t>狗窝手动</t>
+        </is>
+      </c>
+      <c r="E56" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-</t>
+        </is>
+      </c>
+      <c r="F56" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-BONE-CF-S</t>
+        </is>
+      </c>
+      <c r="G56" s="1" t="inlineStr">
+        <is>
+          <t>B07FM6XK1D</t>
+        </is>
+      </c>
+      <c r="H56" s="4" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="I56" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J56" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K56"/>
+      <c r="L56" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M56" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q56" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R56"/>
+      <c r="S56" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T56" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U56" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V56" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C57" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D57" s="1" t="inlineStr">
+        <is>
+          <t>狗窝手动</t>
+        </is>
+      </c>
+      <c r="E57" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-</t>
+        </is>
+      </c>
+      <c r="F57" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-BONE-BK-L</t>
+        </is>
+      </c>
+      <c r="G57" s="1" t="inlineStr">
+        <is>
+          <t>B07FM7ZNYH</t>
+        </is>
+      </c>
+      <c r="H57" s="4" t="n">
+        <v>365.0</v>
+      </c>
+      <c r="I57" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J57" s="6" t="n">
+        <v>0.0027397260273972603</v>
+      </c>
+      <c r="K57" s="7" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="L57" s="7" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="M57" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N57"/>
+      <c r="O57" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P57" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q57" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R57" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S57" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T57" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U57" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V57" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C58" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D58" s="1" t="inlineStr">
+        <is>
+          <t>狗窝手动</t>
+        </is>
+      </c>
+      <c r="E58" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-</t>
+        </is>
+      </c>
+      <c r="F58" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-BONE-PK-L</t>
+        </is>
+      </c>
+      <c r="G58" s="1" t="inlineStr">
+        <is>
+          <t>B07FM8ZD2W</t>
+        </is>
+      </c>
+      <c r="H58" s="4" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="I58" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J58" s="6" t="n">
+        <v>0.004484304932735426</v>
+      </c>
+      <c r="K58" s="7" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="L58" s="7" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="M58" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N58"/>
+      <c r="O58" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P58" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q58" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R58" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S58" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T58" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U58" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V58" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C59" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D59" s="1" t="inlineStr">
+        <is>
+          <t>狗窝手动</t>
+        </is>
+      </c>
+      <c r="E59" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-</t>
+        </is>
+      </c>
+      <c r="F59" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-BONE-LB-M</t>
+        </is>
+      </c>
+      <c r="G59" s="1" t="inlineStr">
+        <is>
+          <t>B07FMJ7PGR</t>
+        </is>
+      </c>
+      <c r="H59" s="4" t="n">
+        <v>168.0</v>
+      </c>
+      <c r="I59" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J59" s="6" t="n">
+        <v>0.011904761904761904</v>
+      </c>
+      <c r="K59" s="7" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L59" s="7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M59" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N59"/>
+      <c r="O59" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P59" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q59" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R59" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S59" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T59" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U59" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V59" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C60" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D60" s="1" t="inlineStr">
+        <is>
+          <t>狗窝手动</t>
+        </is>
+      </c>
+      <c r="E60" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-</t>
+        </is>
+      </c>
+      <c r="F60" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-BONE-CF-M</t>
+        </is>
+      </c>
+      <c r="G60" s="1" t="inlineStr">
+        <is>
+          <t>B07FMJZCZ9</t>
+        </is>
+      </c>
+      <c r="H60" s="4" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="I60" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J60" s="6" t="n">
+        <v>0.01694915254237288</v>
+      </c>
+      <c r="K60" s="7" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="L60" s="7" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="M60" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N60"/>
+      <c r="O60" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P60" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q60" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R60" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S60" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T60" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U60" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V60" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C61" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D61" s="1" t="inlineStr">
+        <is>
+          <t>狗窝手动</t>
+        </is>
+      </c>
+      <c r="E61" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-</t>
+        </is>
+      </c>
+      <c r="F61" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-BONE-PK-M</t>
+        </is>
+      </c>
+      <c r="G61" s="1" t="inlineStr">
+        <is>
+          <t>B07FM6X9XD</t>
+        </is>
+      </c>
+      <c r="H61" s="4" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="I61" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J61" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K61"/>
+      <c r="L61" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M61" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q61" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R61"/>
+      <c r="S61" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T61" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U61" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V61" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C62" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D62" s="1" t="inlineStr">
+        <is>
+          <t>狗窝手动</t>
+        </is>
+      </c>
+      <c r="E62" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-</t>
+        </is>
+      </c>
+      <c r="F62" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-PAW-OR-L</t>
+        </is>
+      </c>
+      <c r="G62" s="1" t="inlineStr">
+        <is>
+          <t>B07FM1N386</t>
+        </is>
+      </c>
+      <c r="H62" s="4" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="I62" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J62" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K62"/>
+      <c r="L62" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M62" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q62" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R62"/>
+      <c r="S62" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T62" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U62" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V62" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C63" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D63" s="1" t="inlineStr">
+        <is>
+          <t>狗窝手动</t>
+        </is>
+      </c>
+      <c r="E63" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-</t>
+        </is>
+      </c>
+      <c r="F63" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-PAW-LB-M</t>
+        </is>
+      </c>
+      <c r="G63" s="1" t="inlineStr">
+        <is>
+          <t>B07FM6WZNK</t>
+        </is>
+      </c>
+      <c r="H63" s="4" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="I63" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J63" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K63"/>
+      <c r="L63" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M63" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q63" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R63"/>
+      <c r="S63" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T63" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U63" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V63" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C64" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D64" s="1" t="inlineStr">
+        <is>
+          <t>狗窝手动</t>
+        </is>
+      </c>
+      <c r="E64" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-</t>
+        </is>
+      </c>
+      <c r="F64" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-BONE-BK-M</t>
+        </is>
+      </c>
+      <c r="G64" s="1" t="inlineStr">
+        <is>
+          <t>B07FM5RG53</t>
+        </is>
+      </c>
+      <c r="H64" s="4" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="I64" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J64" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K64"/>
+      <c r="L64" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M64" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q64" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R64"/>
+      <c r="S64" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T64" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U64" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V64" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C65" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D65" s="1" t="inlineStr">
+        <is>
+          <t>狗窝手动</t>
+        </is>
+      </c>
+      <c r="E65" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-</t>
+        </is>
+      </c>
+      <c r="F65" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-PAW-PK-M</t>
+        </is>
+      </c>
+      <c r="G65" s="1" t="inlineStr">
+        <is>
+          <t>B07FMJ672F</t>
+        </is>
+      </c>
+      <c r="H65" s="4" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="I65" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J65" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K65"/>
+      <c r="L65" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M65" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q65" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R65"/>
+      <c r="S65" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T65" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U65" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V65" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C66" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D66" s="1" t="inlineStr">
+        <is>
+          <t>狗窝手动</t>
+        </is>
+      </c>
+      <c r="E66" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-</t>
+        </is>
+      </c>
+      <c r="F66" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-PAW-GN-M</t>
+        </is>
+      </c>
+      <c r="G66" s="1" t="inlineStr">
+        <is>
+          <t>B07FM5RP8F</t>
+        </is>
+      </c>
+      <c r="H66" s="4" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="I66" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J66" s="6" t="n">
+        <v>0.023809523809523808</v>
+      </c>
+      <c r="K66" s="7" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="L66" s="7" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="M66" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N66"/>
+      <c r="O66" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P66" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q66" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R66" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S66" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T66" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U66" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V66" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C67" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D67" s="1" t="inlineStr">
+        <is>
+          <t>狗窝手动</t>
+        </is>
+      </c>
+      <c r="E67" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-</t>
+        </is>
+      </c>
+      <c r="F67" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-BONE-BK-S</t>
+        </is>
+      </c>
+      <c r="G67" s="1" t="inlineStr">
+        <is>
+          <t>B07FM9Z4WW</t>
+        </is>
+      </c>
+      <c r="H67" s="4" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="I67" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J67" s="6" t="n">
+        <v>0.010695187165775399</v>
+      </c>
+      <c r="K67" s="7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L67" s="7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M67" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N67"/>
+      <c r="O67" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P67" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q67" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R67" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S67" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T67" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U67" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V67" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C68" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D68" s="1" t="inlineStr">
+        <is>
+          <t>狗窝手动</t>
+        </is>
+      </c>
+      <c r="E68" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-</t>
+        </is>
+      </c>
+      <c r="F68" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-BONE-PK-S</t>
+        </is>
+      </c>
+      <c r="G68" s="1" t="inlineStr">
+        <is>
+          <t>B07FM6X922</t>
+        </is>
+      </c>
+      <c r="H68" s="4" t="n">
+        <v>317.0</v>
+      </c>
+      <c r="I68" s="4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J68" s="6" t="n">
+        <v>0.00946372239747634</v>
+      </c>
+      <c r="K68" s="7" t="n">
+        <v>0.5866666666666667</v>
+      </c>
+      <c r="L68" s="7" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M68" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N68"/>
+      <c r="O68" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P68" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q68" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R68" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S68" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T68" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U68" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V68" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C69" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D69" s="1" t="inlineStr">
+        <is>
+          <t>狗窝手动</t>
+        </is>
+      </c>
+      <c r="E69" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-</t>
+        </is>
+      </c>
+      <c r="F69" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-PAW-PK-L</t>
+        </is>
+      </c>
+      <c r="G69" s="1" t="inlineStr">
+        <is>
+          <t>B07FM7Z6C9</t>
+        </is>
+      </c>
+      <c r="H69" s="4" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="I69" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J69" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K69"/>
+      <c r="L69" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M69" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q69" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R69"/>
+      <c r="S69" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T69" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U69" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V69" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C70" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D70" s="1" t="inlineStr">
+        <is>
+          <t>狗窝手动</t>
+        </is>
+      </c>
+      <c r="E70" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-</t>
+        </is>
+      </c>
+      <c r="F70" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-BONE-GR-XL</t>
+        </is>
+      </c>
+      <c r="G70" s="1" t="inlineStr">
+        <is>
+          <t>B07FM6XTK8</t>
+        </is>
+      </c>
+      <c r="H70" s="4" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="I70" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J70" s="6" t="n">
+        <v>0.00625</v>
+      </c>
+      <c r="K70" s="7" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="L70" s="7" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M70" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N70"/>
+      <c r="O70" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P70" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q70" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R70" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S70" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T70" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U70" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V70" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C71" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D71" s="1" t="inlineStr">
+        <is>
+          <t>狗窝手动</t>
+        </is>
+      </c>
+      <c r="E71" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-</t>
+        </is>
+      </c>
+      <c r="F71" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-BONE-BK-XL</t>
+        </is>
+      </c>
+      <c r="G71" s="1" t="inlineStr">
+        <is>
+          <t>B07FM6X6DD</t>
+        </is>
+      </c>
+      <c r="H71" s="4" t="n">
+        <v>321.0</v>
+      </c>
+      <c r="I71" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J71" s="6" t="n">
+        <v>0.003115264797507788</v>
+      </c>
+      <c r="K71" s="7" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="L71" s="7" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="M71" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N71"/>
+      <c r="O71" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P71" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q71" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R71" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S71" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T71" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U71" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V71" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>43335.0</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C72" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D72" s="1" t="inlineStr">
+        <is>
+          <t>狗窝手动</t>
+        </is>
+      </c>
+      <c r="E72" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-</t>
+        </is>
+      </c>
+      <c r="F72" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-BONE-PK-XL</t>
+        </is>
+      </c>
+      <c r="G72" s="1" t="inlineStr">
+        <is>
+          <t>B07FM7ZB3H</t>
+        </is>
+      </c>
+      <c r="H72" s="4" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="I72" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J72" s="6" t="n">
+        <v>0.010869565217391304</v>
+      </c>
+      <c r="K72" s="7" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L72" s="7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M72" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N72"/>
+      <c r="O72" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P72" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q72" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R72" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S72" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T72" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U72" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V72" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>43335.0</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D73" s="1" t="inlineStr">
+        <is>
+          <t>狗窝手动</t>
+        </is>
+      </c>
+      <c r="E73" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-</t>
+        </is>
+      </c>
+      <c r="F73" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-BONE-LB-XL</t>
+        </is>
+      </c>
+      <c r="G73" s="1" t="inlineStr">
+        <is>
+          <t>B07FMBYQDN</t>
+        </is>
+      </c>
+      <c r="H73" s="4" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="I73" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J73" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K73"/>
+      <c r="L73" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M73" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q73" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R73"/>
+      <c r="S73" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T73" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U73" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V73" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C74" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D74" s="1" t="inlineStr">
+        <is>
+          <t>狗窝手动</t>
+        </is>
+      </c>
+      <c r="E74" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-</t>
+        </is>
+      </c>
+      <c r="F74" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-PAW-OR-XL</t>
+        </is>
+      </c>
+      <c r="G74" s="1" t="inlineStr">
+        <is>
+          <t>B07FMD84PY</t>
+        </is>
+      </c>
+      <c r="H74" s="4" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="I74" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J74" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K74"/>
+      <c r="L74" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M74" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q74" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R74"/>
+      <c r="S74" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T74" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U74" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V74" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C75" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D75" s="1" t="inlineStr">
+        <is>
+          <t>狗窝手动</t>
+        </is>
+      </c>
+      <c r="E75" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-</t>
+        </is>
+      </c>
+      <c r="F75" s="1" t="inlineStr">
+        <is>
+          <t>GW-IUHM-PAW-PK-XL</t>
+        </is>
+      </c>
+      <c r="G75" s="1" t="inlineStr">
+        <is>
+          <t>B07FM7ZXWX</t>
+        </is>
+      </c>
+      <c r="H75" s="4" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="I75" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J75" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K75"/>
+      <c r="L75" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M75" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q75" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R75"/>
+      <c r="S75" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T75" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U75" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V75" s="7" t="n">
         <v>0.0</v>
       </c>
     </row>
